--- a/relatorios/tabela testes consumo.xlsx
+++ b/relatorios/tabela testes consumo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Teste(nº)</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>100% uso do CPU</t>
+  </si>
+  <si>
+    <t>Equação utilizada para calcular as horas: =(360000/((0,133*F9)+G10+(75,233*F11)))/(3600/(F9+F10+F11))</t>
   </si>
 </sst>
 </file>
@@ -104,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,20 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -215,40 +209,52 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,668 +538,681 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="6" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
-    <col min="11" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>100</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <f>D4*3600</f>
         <v>360000</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="5" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <v>3540</v>
       </c>
-      <c r="G9" s="15">
-        <f>E9*F9</f>
+      <c r="G9" s="10">
+        <f>0.133*F9</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f>G9+G10+G11</f>
         <v>4984.8</v>
       </c>
-      <c r="I9" s="17">
-        <f>D$5/H9</f>
+      <c r="I9" s="16">
+        <f>360000/(G9+G10+G11)</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="J9" s="17">
-        <f>I9/(3600/(F9+F10+F11))</f>
+      <c r="J9" s="16">
+        <f>(360000/((0.133*F9)+G10+(75.233*F11)))/(3600/(F9+F10+F11))</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <f>J9/24</f>
         <v>3.0091478093403947</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <f>E10*F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>75.233000000000004</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="10">
         <v>60</v>
       </c>
-      <c r="G11" s="15">
-        <f t="shared" ref="G11" si="0">E11*F11</f>
+      <c r="G11" s="10">
+        <f>75.233*F11</f>
         <v>4513.9800000000005</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="10">
         <v>3540</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <f>E13*F13</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>G13+G14+G15</f>
         <v>4756.8</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f>D$5/H13</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f>I13/(3600/(F13+F14+F15))</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <f>J13/24</f>
         <v>3.1533804238143293</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <f>E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="11">
         <v>71.433000000000007</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>60</v>
       </c>
-      <c r="G15" s="15">
-        <f t="shared" ref="G15" si="1">E15*F15</f>
+      <c r="G15" s="10">
+        <f t="shared" ref="G15" si="0">E15*F15</f>
         <v>4285.9800000000005</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="18">
         <v>3</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>7190</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="10">
         <f>E17*F17</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <f>G17+G18+G19</f>
         <v>1670.6000000000001</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <f>D$5/H17</f>
         <v>215.49144020112533</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <f>I17/(3600/(F17+F18+F19))</f>
         <v>430.98288040225066</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="17">
         <f>J17/24</f>
         <v>17.957620016760444</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="10">
         <f>E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="11">
         <v>71.433000000000007</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="10">
         <v>10</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" ref="G19" si="2">E19*F19</f>
+      <c r="G19" s="10">
+        <f t="shared" ref="G19" si="1">E19*F19</f>
         <v>714.33</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="18">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="10">
         <v>7190</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="10">
         <f>E21*F21</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <f>G21+G22+G23</f>
         <v>1175.3030000000001</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <f>D$5/H21</f>
         <v>306.30399139626121</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <f>I21/(3600/(F21+F22+F23))</f>
         <v>612.60798279252242</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <f>J21/24</f>
         <v>25.525332616355101</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="10">
         <v>9</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="10">
         <f>E22*F22</f>
         <v>147.6</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="11">
         <v>71.433000000000007</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="15">
-        <f t="shared" ref="G23" si="3">E23*F23</f>
+      <c r="G23" s="10">
+        <f t="shared" ref="G23" si="2">E23*F23</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+      <c r="B25" s="18">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="10">
         <v>3590</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="10">
         <f>E25*F25</f>
         <v>477.47</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f>G25+G26+G27</f>
         <v>696.50300000000004</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <f>D$5/H25</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="16">
         <f>I25/(3600/(F25+F26+F27))</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="17">
         <f>J25/24</f>
         <v>21.536159930395129</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="10">
         <v>9</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="10">
         <f>E26*F26</f>
         <v>147.6</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="11">
         <v>71.433000000000007</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="15">
-        <f t="shared" ref="G27" si="4">E27*F27</f>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27" si="3">E27*F27</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="18">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="10">
         <v>3590</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="10">
         <f>E29*F29</f>
         <v>477.47</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <f>G29+G30+G31</f>
         <v>1241.0030000000002</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <f>D$5/H29</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <f>I29/(3600/(F29+F30+F31))</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <f>J29/24</f>
         <v>12.086997372286769</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="11">
         <v>76.900000000000006</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="10">
         <v>9</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="10">
         <f>E30*F30</f>
         <v>692.1</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="11">
         <v>71.433000000000007</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="15">
-        <f t="shared" ref="G31" si="5">E31*F31</f>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31" si="4">E31*F31</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="G3:K4"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="B17:B19"/>
@@ -1205,7 +1224,6 @@
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="K29:K31"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I25:I27"/>
@@ -1215,12 +1233,13 @@
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
     <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H7:H8"/>
@@ -1232,8 +1251,8 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/relatorios/tabela testes consumo.xlsx
+++ b/relatorios/tabela testes consumo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="tabela consumo" sheetId="1" r:id="rId1"/>
+    <sheet name="tabela grafico" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Teste(nº)</t>
   </si>
@@ -63,9 +64,6 @@
     <t>Especificações do teste:</t>
   </si>
   <si>
-    <t>somatório de ciclo</t>
-  </si>
-  <si>
     <t>bateria</t>
   </si>
   <si>
@@ -101,6 +99,39 @@
   <si>
     <t>Equação utilizada para calcular as horas: =(360000/((0,133*F9)+G10+(75,233*F11)))/(3600/(F9+F10+F11))</t>
   </si>
+  <si>
+    <t>somatório consumo por ciclo</t>
+  </si>
+  <si>
+    <t>Horas percorridas</t>
+  </si>
+  <si>
+    <t>Valor de bateria</t>
+  </si>
+  <si>
+    <t>teste 1</t>
+  </si>
+  <si>
+    <t>teste 2</t>
+  </si>
+  <si>
+    <t>teste 3</t>
+  </si>
+  <si>
+    <t>teste 4</t>
+  </si>
+  <si>
+    <t>teste 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bateria: </t>
+  </si>
+  <si>
+    <t>teste 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teste(nº) </t>
+  </si>
 </sst>
 </file>
 
@@ -125,15 +156,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,11 +230,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,6 +330,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,6 +401,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +443,1716 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>grafico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> linear consumo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$G$7:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$G$9:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$H$7:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$H$9:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$I$7:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$I$9:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>276470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192940</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176233.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159527.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>142821.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>126115.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109409.99999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59292</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25880</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$J$7:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$J$9:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348246.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336493.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324740.90999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312987.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>301234.84999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289481.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277728.78999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265975.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254222.72999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>242469.69999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230716.66999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218963.63999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207210.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195457.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183704.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>171951.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160198.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148445.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136692.43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>124939.39999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113186.36999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101433.33999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89680.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77927.27999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66174.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54421.219999999972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42668.189999999944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30915.159999999974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19162.129999999946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7409.0999999999767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$K$7:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$K$9:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>353034.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346069.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>339104.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332139.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>325174.84999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318209.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>311244.78999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>304279.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>297314.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290349.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283384.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>276419.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269454.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262489.57999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255524.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>248559.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>241594.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234629.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>227664.43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220699.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213734.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>206769.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199804.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>192839.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185874.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>178909.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>171944.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164979.15999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158014.12999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151049.09999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>144084.06999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>137119.03999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130154.00999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123188.97999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>116223.94999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109258.91999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102293.88999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95328.859999999986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88363.829999999958</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81398.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74433.76999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67468.739999999991</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60503.709999999963</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53538.679999999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46573.649999999965</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39608.619999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32643.589999999967</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25678.559999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18713.52999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11748.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4783.4699999999721</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabela grafico'!$L$7:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Valor de bateria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teste 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabela grafico'!$L$9:$L$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347589.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335179.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322769.90999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310359.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297949.84999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>285539.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273129.78999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260719.75999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>248309.72999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235899.69999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223489.66999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211079.63999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198669.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>186259.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173849.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161439.51999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149029.48999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136619.45999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>124209.42999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>111799.39999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99389.369999999966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86979.339999999967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74569.309999999939</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62159.27999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49749.249999999942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37339.219999999972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24929.189999999944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12519.159999999974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>109.12999999994645</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B8BD-45FB-9A52-4FBB60F0FF5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1326555040"/>
+        <c:axId val="1326557120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1326555040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Dezena</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de h</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>ora</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> percorrida</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326557120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1326557120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Carga</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> da bateria (mAh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326555040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,16 +2418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K31"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
@@ -555,96 +2437,97 @@
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="G3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
         <f>D4*3600</f>
         <v>360000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,7 +2536,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="30">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -672,25 +2555,25 @@
         <f>0.133*F9</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="32">
         <f>G9+G10+G11</f>
         <v>4984.8</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="33">
         <f>360000/(G9+G10+G11)</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="33">
         <f>(360000/((0.133*F9)+G10+(75.233*F11)))/(3600/(F9+F10+F11))</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="34">
         <f>J9/24</f>
         <v>3.0091478093403947</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,13 +2590,13 @@
         <f>E10*F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -730,10 +2613,10 @@
         <f>75.233*F11</f>
         <v>4513.9800000000005</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -748,7 +2631,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="35">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -767,25 +2650,25 @@
         <f>E13*F13</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="32">
         <f>G13+G14+G15</f>
         <v>4756.8</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="33">
         <f>D$5/H13</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="33">
         <f>I13/(3600/(F13+F14+F15))</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="34">
         <f>J13/24</f>
         <v>3.1533804238143293</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,18 +2685,18 @@
         <f>E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="11">
         <v>71.433000000000007</v>
@@ -825,10 +2708,10 @@
         <f t="shared" ref="G15" si="0">E15*F15</f>
         <v>4285.9800000000005</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -843,7 +2726,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="35">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -862,25 +2745,25 @@
         <f>E17*F17</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="32">
         <f>G17+G18+G19</f>
         <v>1670.6000000000001</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="33">
         <f>D$5/H17</f>
         <v>215.49144020112533</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="33">
         <f>I17/(3600/(F17+F18+F19))</f>
         <v>430.98288040225066</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="34">
         <f>J17/24</f>
         <v>17.957620016760444</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -897,18 +2780,18 @@
         <f>E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="11">
         <v>71.433000000000007</v>
@@ -920,10 +2803,10 @@
         <f t="shared" ref="G19" si="1">E19*F19</f>
         <v>714.33</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -938,7 +2821,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="B21" s="35">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -957,30 +2840,30 @@
         <f>E21*F21</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="32">
         <f>G21+G22+G23</f>
         <v>1175.3030000000001</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="33">
         <f>D$5/H21</f>
         <v>306.30399139626121</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="33">
         <f>I21/(3600/(F21+F22+F23))</f>
         <v>612.60798279252242</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="34">
         <f>J21/24</f>
         <v>25.525332616355101</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="11">
         <v>16.399999999999999</v>
@@ -992,18 +2875,18 @@
         <f>E22*F22</f>
         <v>147.6</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="11">
         <v>71.433000000000007</v>
@@ -1015,10 +2898,10 @@
         <f t="shared" ref="G23" si="2">E23*F23</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1033,7 +2916,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
+      <c r="B25" s="35">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1052,30 +2935,30 @@
         <f>E25*F25</f>
         <v>477.47</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="32">
         <f>G25+G26+G27</f>
         <v>696.50300000000004</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="33">
         <f>D$5/H25</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="33">
         <f>I25/(3600/(F25+F26+F27))</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="34">
         <f>J25/24</f>
         <v>21.536159930395129</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="11">
         <v>16.399999999999999</v>
@@ -1087,18 +2970,18 @@
         <f>E26*F26</f>
         <v>147.6</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="11">
         <v>71.433000000000007</v>
@@ -1110,10 +2993,10 @@
         <f t="shared" ref="G27" si="3">E27*F27</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -1128,7 +3011,7 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="35">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1147,30 +3030,30 @@
         <f>E29*F29</f>
         <v>477.47</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="32">
         <f>G29+G30+G31</f>
         <v>1241.0030000000002</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="33">
         <f>D$5/H29</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="33">
         <f>I29/(3600/(F29+F30+F31))</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="34">
         <f>J29/24</f>
         <v>12.086997372286769</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="11">
         <v>76.900000000000006</v>
@@ -1182,18 +3065,18 @@
         <f>E30*F30</f>
         <v>692.1</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="11">
         <v>71.433000000000007</v>
@@ -1205,19 +3088,28 @@
         <f t="shared" ref="G31" si="4">E31*F31</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="H29:H31"/>
@@ -1227,17 +3119,7 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J17:J19"/>
     <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B3:C3"/>
@@ -1253,8 +3135,1409 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
+    <mergeCell ref="G3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21" customWidth="1"/>
+    <col min="7" max="12" width="9.28515625" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="29">
+        <v>100</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="27">
+        <f>C4* 3600</f>
+        <v>360000</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="35">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43">
+        <f>'tabela consumo'!H9:H11</f>
+        <v>4984.8</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <f>IF($C$5 - ($F9*$C$9) &gt; 0, $C$5 - ($F9*$C$9), 0)</f>
+        <v>360000</v>
+      </c>
+      <c r="H9" s="27">
+        <f>IF($C$5 - ($F9*$C$13) &gt; 0, $C$5 - ($F9*$C$13), 0)</f>
+        <v>360000</v>
+      </c>
+      <c r="I9" s="27">
+        <f>IF($C$5 - ($F9*$C$17) &gt; 0, $C$5 - ($F9*$C$17), 0)</f>
+        <v>360000</v>
+      </c>
+      <c r="J9" s="27">
+        <f>IF($C$5 - ($F9*$C$21) &gt; 0, $C$5 - ($F9*$C$21), 0)</f>
+        <v>360000</v>
+      </c>
+      <c r="K9" s="27">
+        <f>IF($C$5 - ($F9*$C$25) &gt; 0, $C$5 - ($F9*$C$25), 0)</f>
+        <v>360000</v>
+      </c>
+      <c r="L9" s="27">
+        <f>IF($C$5 - ($F9*$C$29) &gt; 0, $C$5 - ($F9*$C$29), 0)</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="27">
+        <v>10</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" ref="G10:G17" si="0">IF($C$5 - ($F10*$C$9) &gt; 0, $C$5 - ($F10*$C$9), 0)</f>
+        <v>310152</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" ref="H10:H17" si="1">IF($C$5 - ($F10*$C$13) &gt; 0, $C$5 - ($F10*$C$13), 0)</f>
+        <v>312432</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" ref="I10:I31" si="2">IF($C$5 - ($F10*$C$17) &gt; 0, $C$5 - ($F10*$C$17), 0)</f>
+        <v>343294</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" ref="J10:J40" si="3">IF($C$5 - ($F10*$C$21) &gt; 0, $C$5 - ($F10*$C$21), 0)</f>
+        <v>348246.97</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" ref="K10:K61" si="4">IF($C$5 - ($F10*$C$25) &gt; 0, $C$5 - ($F10*$C$25), 0)</f>
+        <v>353034.97</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" ref="L10:L39" si="5">IF($C$5 - ($F10*$C$29) &gt; 0, $C$5 - ($F10*$C$29), 0)</f>
+        <v>347589.97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="27">
+        <v>20</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>260304</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="1"/>
+        <v>264864</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="2"/>
+        <v>326588</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="3"/>
+        <v>336493.94</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="4"/>
+        <v>346069.94</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="5"/>
+        <v>335179.94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="27">
+        <v>30</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>210456</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="1"/>
+        <v>217296</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="2"/>
+        <v>309882</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="3"/>
+        <v>324740.90999999997</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="4"/>
+        <v>339104.91</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="5"/>
+        <v>322769.90999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="35">
+        <v>2</v>
+      </c>
+      <c r="C13" s="43">
+        <f>'tabela consumo'!$H$9:H13</f>
+        <v>4756.8</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="27">
+        <v>40</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>160608</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="1"/>
+        <v>169728</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="2"/>
+        <v>293176</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="3"/>
+        <v>312987.88</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="4"/>
+        <v>332139.88</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="5"/>
+        <v>310359.88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27">
+        <v>50</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>110760</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="1"/>
+        <v>122160</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="2"/>
+        <v>276470</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="3"/>
+        <v>301234.84999999998</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="4"/>
+        <v>325174.84999999998</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="5"/>
+        <v>297949.84999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27">
+        <v>60</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="0"/>
+        <v>60912</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="1"/>
+        <v>74592</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="2"/>
+        <v>259764</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="3"/>
+        <v>289481.82</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="4"/>
+        <v>318209.82</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="5"/>
+        <v>285539.82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27">
+        <v>70</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="0"/>
+        <v>11064</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="1"/>
+        <v>27024</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="2"/>
+        <v>243058</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="3"/>
+        <v>277728.78999999998</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="4"/>
+        <v>311244.78999999998</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="5"/>
+        <v>273129.78999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="35">
+        <v>3</v>
+      </c>
+      <c r="C17" s="43">
+        <f>'tabela consumo'!$H$9:H17</f>
+        <v>1670.6000000000001</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="27">
+        <v>80</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="2"/>
+        <v>226352</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="3"/>
+        <v>265975.76</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="4"/>
+        <v>304279.76</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="5"/>
+        <v>260719.75999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="27">
+        <v>90</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27">
+        <f t="shared" si="2"/>
+        <v>209646</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="3"/>
+        <v>254222.72999999998</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="4"/>
+        <v>297314.73</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="5"/>
+        <v>248309.72999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="27">
+        <v>100</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27">
+        <f t="shared" si="2"/>
+        <v>192940</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="3"/>
+        <v>242469.69999999998</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="4"/>
+        <v>290349.7</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="5"/>
+        <v>235899.69999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="27">
+        <v>110</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27">
+        <f t="shared" si="2"/>
+        <v>176233.99999999997</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="3"/>
+        <v>230716.66999999998</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="4"/>
+        <v>283384.67</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="5"/>
+        <v>223489.66999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="35">
+        <v>4</v>
+      </c>
+      <c r="C21" s="43">
+        <f>'tabela consumo'!$H$9:H21</f>
+        <v>1175.3030000000001</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="27">
+        <v>120</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27">
+        <f t="shared" si="2"/>
+        <v>159527.99999999997</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="3"/>
+        <v>218963.63999999998</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="4"/>
+        <v>276419.64</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="5"/>
+        <v>211079.63999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="27">
+        <v>130</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
+        <v>142821.99999999997</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="3"/>
+        <v>207210.61</v>
+      </c>
+      <c r="K22" s="27">
+        <f>IF($C$5 - ($F22*$C$25) &gt; 0, $C$5 - ($F22*$C$25), 0)</f>
+        <v>269454.61</v>
+      </c>
+      <c r="L22" s="27">
+        <f t="shared" si="5"/>
+        <v>198669.61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="27">
+        <v>140</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>126115.99999999997</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="3"/>
+        <v>195457.58</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="4"/>
+        <v>262489.57999999996</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="5"/>
+        <v>186259.58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="27">
+        <v>150</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>109409.99999999997</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="3"/>
+        <v>183704.55</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="4"/>
+        <v>255524.55</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="5"/>
+        <v>173849.55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="35">
+        <v>5</v>
+      </c>
+      <c r="C25" s="43">
+        <f>'tabela consumo'!$H$9:H25</f>
+        <v>696.50300000000004</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="27">
+        <v>160</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>92704</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" si="3"/>
+        <v>171951.52</v>
+      </c>
+      <c r="K25" s="27">
+        <f t="shared" si="4"/>
+        <v>248559.52</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="5"/>
+        <v>161439.51999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="27">
+        <v>170</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>75998</v>
+      </c>
+      <c r="J26" s="27">
+        <f t="shared" si="3"/>
+        <v>160198.49</v>
+      </c>
+      <c r="K26" s="27">
+        <f t="shared" si="4"/>
+        <v>241594.49</v>
+      </c>
+      <c r="L26" s="27">
+        <f t="shared" si="5"/>
+        <v>149029.48999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="27">
+        <v>180</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27">
+        <f t="shared" si="2"/>
+        <v>59292</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="3"/>
+        <v>148445.46</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="4"/>
+        <v>234629.46</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="5"/>
+        <v>136619.45999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="27">
+        <v>190</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>42586</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="3"/>
+        <v>136692.43</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="4"/>
+        <v>227664.43</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="5"/>
+        <v>124209.42999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="35">
+        <v>6</v>
+      </c>
+      <c r="C29" s="43">
+        <f>'tabela consumo'!$H$9:H29</f>
+        <v>1241.0030000000002</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="27">
+        <v>200</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27">
+        <f t="shared" si="2"/>
+        <v>25880</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="3"/>
+        <v>124939.39999999997</v>
+      </c>
+      <c r="K29" s="27">
+        <f t="shared" si="4"/>
+        <v>220699.4</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="5"/>
+        <v>111799.39999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="27">
+        <v>210</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27">
+        <f t="shared" si="2"/>
+        <v>9174</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="3"/>
+        <v>113186.36999999997</v>
+      </c>
+      <c r="K30" s="27">
+        <f t="shared" si="4"/>
+        <v>213734.37</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="5"/>
+        <v>99389.369999999966</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="27">
+        <v>220</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="27">
+        <f t="shared" si="3"/>
+        <v>101433.33999999997</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" si="4"/>
+        <v>206769.34</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="5"/>
+        <v>86979.339999999967</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="41"/>
+      <c r="F32" s="27">
+        <v>230</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27">
+        <f t="shared" si="3"/>
+        <v>89680.31</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="4"/>
+        <v>199804.31</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="5"/>
+        <v>74569.309999999939</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E33" s="41"/>
+      <c r="F33" s="27">
+        <v>240</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27">
+        <f t="shared" si="3"/>
+        <v>77927.27999999997</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="4"/>
+        <v>192839.28</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="5"/>
+        <v>62159.27999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E34" s="41"/>
+      <c r="F34" s="27">
+        <v>250</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27">
+        <f t="shared" si="3"/>
+        <v>66174.25</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="4"/>
+        <v>185874.25</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="5"/>
+        <v>49749.249999999942</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E35" s="41"/>
+      <c r="F35" s="27">
+        <v>260</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27">
+        <f t="shared" si="3"/>
+        <v>54421.219999999972</v>
+      </c>
+      <c r="K35" s="27">
+        <f t="shared" si="4"/>
+        <v>178909.22</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="5"/>
+        <v>37339.219999999972</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E36" s="41"/>
+      <c r="F36" s="27">
+        <v>270</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27">
+        <f t="shared" si="3"/>
+        <v>42668.189999999944</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="4"/>
+        <v>171944.19</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="5"/>
+        <v>24929.189999999944</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="41"/>
+      <c r="F37" s="27">
+        <v>280</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27">
+        <f t="shared" si="3"/>
+        <v>30915.159999999974</v>
+      </c>
+      <c r="K37" s="27">
+        <f t="shared" si="4"/>
+        <v>164979.15999999997</v>
+      </c>
+      <c r="L37" s="27">
+        <f t="shared" si="5"/>
+        <v>12519.159999999974</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="41"/>
+      <c r="F38" s="27">
+        <v>290</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27">
+        <f t="shared" si="3"/>
+        <v>19162.129999999946</v>
+      </c>
+      <c r="K38" s="27">
+        <f t="shared" si="4"/>
+        <v>158014.12999999998</v>
+      </c>
+      <c r="L38" s="27">
+        <f t="shared" si="5"/>
+        <v>109.12999999994645</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E39" s="41"/>
+      <c r="F39" s="27">
+        <v>300</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27">
+        <f t="shared" si="3"/>
+        <v>7409.0999999999767</v>
+      </c>
+      <c r="K39" s="27">
+        <f t="shared" si="4"/>
+        <v>151049.09999999998</v>
+      </c>
+      <c r="L39" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E40" s="41"/>
+      <c r="F40" s="27">
+        <v>310</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="4"/>
+        <v>144084.06999999998</v>
+      </c>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="41"/>
+      <c r="F41" s="27">
+        <v>320</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27">
+        <f t="shared" si="4"/>
+        <v>137119.03999999998</v>
+      </c>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E42" s="41"/>
+      <c r="F42" s="27">
+        <v>330</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27">
+        <f t="shared" si="4"/>
+        <v>130154.00999999998</v>
+      </c>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E43" s="41"/>
+      <c r="F43" s="27">
+        <v>340</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27">
+        <f t="shared" si="4"/>
+        <v>123188.97999999998</v>
+      </c>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E44" s="41"/>
+      <c r="F44" s="27">
+        <v>350</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27">
+        <f t="shared" si="4"/>
+        <v>116223.94999999998</v>
+      </c>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E45" s="41"/>
+      <c r="F45" s="27">
+        <v>360</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27">
+        <f t="shared" si="4"/>
+        <v>109258.91999999998</v>
+      </c>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="41"/>
+      <c r="F46" s="27">
+        <v>370</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27">
+        <f t="shared" si="4"/>
+        <v>102293.88999999998</v>
+      </c>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E47" s="41"/>
+      <c r="F47" s="27">
+        <v>380</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27">
+        <f t="shared" si="4"/>
+        <v>95328.859999999986</v>
+      </c>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E48" s="41"/>
+      <c r="F48" s="27">
+        <v>390</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27">
+        <f t="shared" si="4"/>
+        <v>88363.829999999958</v>
+      </c>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E49" s="41"/>
+      <c r="F49" s="27">
+        <v>400</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27">
+        <f t="shared" si="4"/>
+        <v>81398.799999999988</v>
+      </c>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E50" s="41"/>
+      <c r="F50" s="27">
+        <v>410</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27">
+        <f t="shared" si="4"/>
+        <v>74433.76999999996</v>
+      </c>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E51" s="41"/>
+      <c r="F51" s="27">
+        <v>420</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27">
+        <f t="shared" si="4"/>
+        <v>67468.739999999991</v>
+      </c>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E52" s="41"/>
+      <c r="F52" s="27">
+        <v>430</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27">
+        <f t="shared" si="4"/>
+        <v>60503.709999999963</v>
+      </c>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E53" s="41"/>
+      <c r="F53" s="27">
+        <v>440</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27">
+        <f t="shared" si="4"/>
+        <v>53538.679999999993</v>
+      </c>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E54" s="41"/>
+      <c r="F54" s="27">
+        <v>450</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27">
+        <f t="shared" si="4"/>
+        <v>46573.649999999965</v>
+      </c>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E55" s="41"/>
+      <c r="F55" s="27">
+        <v>460</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27">
+        <f t="shared" si="4"/>
+        <v>39608.619999999995</v>
+      </c>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E56" s="41"/>
+      <c r="F56" s="27">
+        <v>470</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27">
+        <f t="shared" si="4"/>
+        <v>32643.589999999967</v>
+      </c>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E57" s="41"/>
+      <c r="F57" s="27">
+        <v>480</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27">
+        <f t="shared" si="4"/>
+        <v>25678.559999999998</v>
+      </c>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E58" s="41"/>
+      <c r="F58" s="27">
+        <v>490</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27">
+        <f t="shared" si="4"/>
+        <v>18713.52999999997</v>
+      </c>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E59" s="41"/>
+      <c r="F59" s="27">
+        <v>500</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27">
+        <f t="shared" si="4"/>
+        <v>11748.5</v>
+      </c>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E60" s="41"/>
+      <c r="F60" s="27">
+        <v>510</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27">
+        <f t="shared" si="4"/>
+        <v>4783.4699999999721</v>
+      </c>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E61" s="42"/>
+      <c r="F61" s="27">
+        <v>520</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E61"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/relatorios/tabela testes consumo.xlsx
+++ b/relatorios/tabela testes consumo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="tabela consumo" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>100% uso do CPU</t>
   </si>
   <si>
-    <t>Equação utilizada para calcular as horas: =(360000/((0,133*F9)+G10+(75,233*F11)))/(3600/(F9+F10+F11))</t>
-  </si>
-  <si>
     <t>somatório consumo por ciclo</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Teste(nº) </t>
+  </si>
+  <si>
+    <t>Equação utilizada para calcular as horas: =(360000/((0,133*F9)+F10+(75,233*F11)))/(3600/(F9+F10+F11))</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -374,6 +374,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,6 +392,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,21 +402,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +418,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +525,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5843881099431895E-2"/>
+          <c:y val="0.11339616750479101"/>
+          <c:w val="0.90410250383092949"/>
+          <c:h val="0.74708693451348629"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -531,13 +544,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$G$7:$G$8</c:f>
+              <c:f>'tabela grafico'!$G$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -586,7 +596,7 @@
                   <c:v>11064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-38784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,13 +613,10 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$H$7:$H$8</c:f>
+              <c:f>'tabela grafico'!$H$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 2</c:v>
                 </c:pt>
               </c:strCache>
@@ -658,7 +665,7 @@
                   <c:v>27024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-20544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,13 +682,10 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$I$7:$I$8</c:f>
+              <c:f>'tabela grafico'!$I$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -772,7 +776,7 @@
                   <c:v>9174</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-7532.0000000000582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,13 +793,10 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$J$7:$J$8</c:f>
+              <c:f>'tabela grafico'!$J$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 4</c:v>
                 </c:pt>
               </c:strCache>
@@ -915,7 +916,7 @@
                   <c:v>7409.0999999999767</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-4343.9300000000512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,13 +933,10 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$K$7:$K$8</c:f>
+              <c:f>'tabela grafico'!$K$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 5</c:v>
                 </c:pt>
               </c:strCache>
@@ -1121,7 +1119,7 @@
                   <c:v>4783.4699999999721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>-2181.5599999999977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,13 +1136,10 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tabela grafico'!$L$7:$L$8</c:f>
+              <c:f>'tabela grafico'!$L$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valor de bateria</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>teste 6</c:v>
                 </c:pt>
               </c:strCache>
@@ -1261,7 +1256,7 @@
                   <c:v>109.12999999994645</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-12300.900000000023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,6 +1397,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
         <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
@@ -1409,6 +1405,7 @@
         <c:axId val="1326557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1521,6 +1518,64 @@
         <c:crossAx val="1326555040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1050"/>
+                    <a:t>x 10000</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1530,6 +1585,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74164721927249877"/>
+          <c:y val="0.1369721284839395"/>
+          <c:w val="0.12053073177033802"/>
+          <c:h val="0.38653752806186698"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2125,15 +2221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2420,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2440,23 +2536,23 @@
     <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="G3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
@@ -2469,11 +2565,11 @@
       <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
@@ -2490,44 +2586,44 @@
     </row>
     <row r="6" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2632,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2555,25 +2651,25 @@
         <f>0.133*F9</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="33">
         <f>G9+G10+G11</f>
         <v>4984.8</v>
       </c>
-      <c r="I9" s="33">
-        <f>360000/(G9+G10+G11)</f>
+      <c r="I9" s="34">
+        <f>D$5/H9</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="34">
         <f>(360000/((0.133*F9)+G10+(75.233*F11)))/(3600/(F9+F10+F11))</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="35">
         <f>J9/24</f>
         <v>3.0091478093403947</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2590,13 +2686,13 @@
         <f>E10*F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2613,10 +2709,10 @@
         <f>75.233*F11</f>
         <v>4513.9800000000005</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -2631,7 +2727,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35">
+      <c r="B13" s="37">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2650,25 +2746,25 @@
         <f>E13*F13</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="33">
         <f>G13+G14+G15</f>
         <v>4756.8</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f>D$5/H13</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="34">
         <f>I13/(3600/(F13+F14+F15))</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="35">
         <f>J13/24</f>
         <v>3.1533804238143293</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2685,13 +2781,13 @@
         <f>E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -2708,10 +2804,10 @@
         <f t="shared" ref="G15" si="0">E15*F15</f>
         <v>4285.9800000000005</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -2726,7 +2822,7 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
+      <c r="B17" s="37">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2745,25 +2841,25 @@
         <f>E17*F17</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="33">
         <f>G17+G18+G19</f>
         <v>1670.6000000000001</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f>D$5/H17</f>
         <v>215.49144020112533</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="34">
         <f>I17/(3600/(F17+F18+F19))</f>
         <v>430.98288040225066</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="35">
         <f>J17/24</f>
         <v>17.957620016760444</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2780,13 +2876,13 @@
         <f>E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2803,10 +2899,10 @@
         <f t="shared" ref="G19" si="1">E19*F19</f>
         <v>714.33</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -2821,7 +2917,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2840,25 +2936,25 @@
         <f>E21*F21</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="33">
         <f>G21+G22+G23</f>
         <v>1175.3030000000001</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f>D$5/H21</f>
         <v>306.30399139626121</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="34">
         <f>I21/(3600/(F21+F22+F23))</f>
         <v>612.60798279252242</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="35">
         <f>J21/24</f>
         <v>25.525332616355101</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2875,13 +2971,13 @@
         <f>E22*F22</f>
         <v>147.6</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2898,10 +2994,10 @@
         <f t="shared" ref="G23" si="2">E23*F23</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -2916,7 +3012,7 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="35">
+      <c r="B25" s="37">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2935,25 +3031,25 @@
         <f>E25*F25</f>
         <v>477.47</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="33">
         <f>G25+G26+G27</f>
         <v>696.50300000000004</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <f>D$5/H25</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="34">
         <f>I25/(3600/(F25+F26+F27))</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="35">
         <f>J25/24</f>
         <v>21.536159930395129</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2970,13 +3066,13 @@
         <f>E26*F26</f>
         <v>147.6</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2993,10 +3089,10 @@
         <f t="shared" ref="G27" si="3">E27*F27</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -3011,7 +3107,7 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="35">
+      <c r="B29" s="37">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3030,25 +3126,25 @@
         <f>E29*F29</f>
         <v>477.47</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="33">
         <f>G29+G30+G31</f>
         <v>1241.0030000000002</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <f>D$5/H29</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="34">
         <f>I29/(3600/(F29+F30+F31))</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="35">
         <f>J29/24</f>
         <v>12.086997372286769</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
@@ -3065,13 +3161,13 @@
         <f>E30*F30</f>
         <v>692.1</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
@@ -3088,10 +3184,10 @@
         <f t="shared" ref="G31" si="4">E31*F31</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -3146,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3163,10 +3259,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="24"/>
       <c r="E3" s="16"/>
       <c r="F3" s="22"/>
@@ -3176,7 +3272,7 @@
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="29">
         <v>100</v>
@@ -3192,7 +3288,7 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="27">
         <f>C4* 3600</f>
@@ -3204,151 +3300,151 @@
     </row>
     <row r="6" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="39" t="s">
+      <c r="G7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>33</v>
-      </c>
       <c r="L8" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="35">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="40">
         <f>'tabela consumo'!H9:H11</f>
         <v>4984.8</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="27">
         <v>0</v>
       </c>
       <c r="G9" s="27">
-        <f>IF($C$5 - ($F9*$C$9) &gt; 0, $C$5 - ($F9*$C$9), 0)</f>
+        <f>$C$5 - ($F9*$C$9)</f>
         <v>360000</v>
       </c>
       <c r="H9" s="27">
-        <f>IF($C$5 - ($F9*$C$13) &gt; 0, $C$5 - ($F9*$C$13), 0)</f>
+        <f>$C$5 - ($F9*$C$13)</f>
         <v>360000</v>
       </c>
       <c r="I9" s="27">
-        <f>IF($C$5 - ($F9*$C$17) &gt; 0, $C$5 - ($F9*$C$17), 0)</f>
+        <f>$C$5 - ($F9*$C$17)</f>
         <v>360000</v>
       </c>
       <c r="J9" s="27">
-        <f>IF($C$5 - ($F9*$C$21) &gt; 0, $C$5 - ($F9*$C$21), 0)</f>
+        <f>$C$5 - ($F9*$C$21)</f>
         <v>360000</v>
       </c>
       <c r="K9" s="27">
-        <f>IF($C$5 - ($F9*$C$25) &gt; 0, $C$5 - ($F9*$C$25), 0)</f>
+        <f>$C$5 - ($F9*$C$25)</f>
         <v>360000</v>
       </c>
       <c r="L9" s="27">
-        <f>IF($C$5 - ($F9*$C$29) &gt; 0, $C$5 - ($F9*$C$29), 0)</f>
+        <f>$C$5 - ($F9*$C$29)*2</f>
         <v>360000</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="27">
         <v>10</v>
       </c>
-      <c r="G10" s="27">
-        <f t="shared" ref="G10:G17" si="0">IF($C$5 - ($F10*$C$9) &gt; 0, $C$5 - ($F10*$C$9), 0)</f>
+      <c r="G10" s="30">
+        <f t="shared" ref="G10:G17" si="0">$C$5 - ($F10*$C$9)</f>
         <v>310152</v>
       </c>
-      <c r="H10" s="27">
-        <f t="shared" ref="H10:H17" si="1">IF($C$5 - ($F10*$C$13) &gt; 0, $C$5 - ($F10*$C$13), 0)</f>
+      <c r="H10" s="30">
+        <f t="shared" ref="H10:H17" si="1">$C$5 - ($F10*$C$13)</f>
         <v>312432</v>
       </c>
-      <c r="I10" s="27">
-        <f t="shared" ref="I10:I31" si="2">IF($C$5 - ($F10*$C$17) &gt; 0, $C$5 - ($F10*$C$17), 0)</f>
+      <c r="I10" s="30">
+        <f t="shared" ref="I10:I31" si="2">$C$5 - ($F10*$C$17)</f>
         <v>343294</v>
       </c>
-      <c r="J10" s="27">
-        <f t="shared" ref="J10:J40" si="3">IF($C$5 - ($F10*$C$21) &gt; 0, $C$5 - ($F10*$C$21), 0)</f>
+      <c r="J10" s="30">
+        <f t="shared" ref="J10:J40" si="3">$C$5 - ($F10*$C$21)</f>
         <v>348246.97</v>
       </c>
-      <c r="K10" s="27">
-        <f t="shared" ref="K10:K61" si="4">IF($C$5 - ($F10*$C$25) &gt; 0, $C$5 - ($F10*$C$25), 0)</f>
+      <c r="K10" s="30">
+        <f t="shared" ref="K10:K61" si="4">$C$5 - ($F10*$C$25)</f>
         <v>353034.97</v>
       </c>
-      <c r="L10" s="27">
-        <f t="shared" ref="L10:L39" si="5">IF($C$5 - ($F10*$C$29) &gt; 0, $C$5 - ($F10*$C$29), 0)</f>
+      <c r="L10" s="30">
+        <f t="shared" ref="L10:L39" si="5">$C$5 - ($F10*$C$29)</f>
         <v>347589.97</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="27">
         <v>20</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="30">
         <f t="shared" si="0"/>
         <v>260304</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>264864</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="30">
         <f t="shared" si="2"/>
         <v>326588</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="30">
         <f t="shared" si="3"/>
         <v>336493.94</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="30">
         <f t="shared" si="4"/>
         <v>346069.94</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="30">
         <f t="shared" si="5"/>
         <v>335179.94</v>
       </c>
@@ -3357,135 +3453,135 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="27">
         <v>30</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="30">
         <f t="shared" si="0"/>
         <v>210456</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="30">
         <f t="shared" si="1"/>
         <v>217296</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="30">
         <f t="shared" si="2"/>
         <v>309882</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="30">
         <f t="shared" si="3"/>
         <v>324740.90999999997</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="30">
         <f t="shared" si="4"/>
         <v>339104.91</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="30">
         <f t="shared" si="5"/>
         <v>322769.90999999997</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="35">
+      <c r="B13" s="37">
         <v>2</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <f>'tabela consumo'!$H$9:H13</f>
         <v>4756.8</v>
       </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="27">
         <v>40</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="30">
         <f t="shared" si="0"/>
         <v>160608</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>169728</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="30">
         <f t="shared" si="2"/>
         <v>293176</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="30">
         <f t="shared" si="3"/>
         <v>312987.88</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="30">
         <f t="shared" si="4"/>
         <v>332139.88</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="30">
         <f t="shared" si="5"/>
         <v>310359.88</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="27">
         <v>50</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="30">
         <f t="shared" si="0"/>
         <v>110760</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>122160</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
         <v>276470</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="30">
         <f t="shared" si="3"/>
         <v>301234.84999999998</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="30">
         <f t="shared" si="4"/>
         <v>325174.84999999998</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="30">
         <f t="shared" si="5"/>
         <v>297949.84999999998</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="27">
         <v>60</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="30">
         <f t="shared" si="0"/>
         <v>60912</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="30">
         <f t="shared" si="1"/>
         <v>74592</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="30">
         <f t="shared" si="2"/>
         <v>259764</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="30">
         <f t="shared" si="3"/>
         <v>289481.82</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="30">
         <f t="shared" si="4"/>
         <v>318209.82</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="30">
         <f t="shared" si="5"/>
         <v>285539.82</v>
       </c>
@@ -3494,123 +3590,123 @@
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="41"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="27">
         <v>70</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
         <v>11064</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="30">
         <f t="shared" si="1"/>
         <v>27024</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="30">
         <f t="shared" si="2"/>
         <v>243058</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="30">
         <f t="shared" si="3"/>
         <v>277728.78999999998</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="30">
         <f t="shared" si="4"/>
         <v>311244.78999999998</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="30">
         <f t="shared" si="5"/>
         <v>273129.78999999998</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35">
+      <c r="B17" s="37">
         <v>3</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="40">
         <f>'tabela consumo'!$H$9:H17</f>
         <v>1670.6000000000001</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="27">
         <v>80</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
+        <v>-38784</v>
+      </c>
+      <c r="H17" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="27">
+        <v>-20544</v>
+      </c>
+      <c r="I17" s="30">
         <f t="shared" si="2"/>
         <v>226352</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="30">
         <f t="shared" si="3"/>
         <v>265975.76</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="30">
         <f t="shared" si="4"/>
         <v>304279.76</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="30">
         <f t="shared" si="5"/>
         <v>260719.75999999998</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="27">
         <v>90</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="27">
+      <c r="I18" s="30">
         <f t="shared" si="2"/>
         <v>209646</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="30">
         <f t="shared" si="3"/>
         <v>254222.72999999998</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="30">
         <f t="shared" si="4"/>
         <v>297314.73</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="30">
         <f t="shared" si="5"/>
         <v>248309.72999999998</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="27">
         <v>100</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="27">
+      <c r="I19" s="30">
         <f t="shared" si="2"/>
         <v>192940</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>242469.69999999998</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="30">
         <f t="shared" si="4"/>
         <v>290349.7</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="30">
         <f t="shared" si="5"/>
         <v>235899.69999999998</v>
       </c>
@@ -3619,111 +3715,111 @@
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="27">
         <v>110</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="27">
+      <c r="I20" s="30">
         <f t="shared" si="2"/>
         <v>176233.99999999997</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="30">
         <f t="shared" si="3"/>
         <v>230716.66999999998</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="30">
         <f t="shared" si="4"/>
         <v>283384.67</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="30">
         <f t="shared" si="5"/>
         <v>223489.66999999998</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>4</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="40">
         <f>'tabela consumo'!$H$9:H21</f>
         <v>1175.3030000000001</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="27">
         <v>120</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="27">
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>159527.99999999997</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="30">
         <f t="shared" si="3"/>
         <v>218963.63999999998</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="30">
         <f t="shared" si="4"/>
         <v>276419.64</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="30">
         <f t="shared" si="5"/>
         <v>211079.63999999998</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="27">
         <v>130</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="27">
+      <c r="I22" s="30">
         <f t="shared" si="2"/>
         <v>142821.99999999997</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="30">
         <f t="shared" si="3"/>
         <v>207210.61</v>
       </c>
-      <c r="K22" s="27">
-        <f>IF($C$5 - ($F22*$C$25) &gt; 0, $C$5 - ($F22*$C$25), 0)</f>
+      <c r="K22" s="30">
+        <f t="shared" si="4"/>
         <v>269454.61</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="30">
         <f t="shared" si="5"/>
         <v>198669.61</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="27">
         <v>140</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="27">
+      <c r="I23" s="30">
         <f t="shared" si="2"/>
         <v>126115.99999999997</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="30">
         <f t="shared" si="3"/>
         <v>195457.58</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="30">
         <f t="shared" si="4"/>
         <v>262489.57999999996</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="30">
         <f t="shared" si="5"/>
         <v>186259.58</v>
       </c>
@@ -3732,111 +3828,111 @@
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="27">
         <v>150</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="27">
+      <c r="I24" s="30">
         <f t="shared" si="2"/>
         <v>109409.99999999997</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="30">
         <f t="shared" si="3"/>
         <v>183704.55</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="30">
         <f t="shared" si="4"/>
         <v>255524.55</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="30">
         <f t="shared" si="5"/>
         <v>173849.55</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="35">
+      <c r="B25" s="37">
         <v>5</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="40">
         <f>'tabela consumo'!$H$9:H25</f>
         <v>696.50300000000004</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="27">
         <v>160</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="27">
+      <c r="I25" s="30">
         <f t="shared" si="2"/>
         <v>92704</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="30">
         <f t="shared" si="3"/>
         <v>171951.52</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="30">
         <f t="shared" si="4"/>
         <v>248559.52</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="30">
         <f t="shared" si="5"/>
         <v>161439.51999999996</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="27">
         <v>170</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="27">
+      <c r="I26" s="30">
         <f t="shared" si="2"/>
         <v>75998</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="30">
         <f t="shared" si="3"/>
         <v>160198.49</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="30">
         <f t="shared" si="4"/>
         <v>241594.49</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="30">
         <f t="shared" si="5"/>
         <v>149029.48999999996</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="27">
         <v>180</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="27">
+      <c r="I27" s="30">
         <f t="shared" si="2"/>
         <v>59292</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="30">
         <f t="shared" si="3"/>
         <v>148445.46</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="30">
         <f t="shared" si="4"/>
         <v>234629.46</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="30">
         <f t="shared" si="5"/>
         <v>136619.45999999996</v>
       </c>
@@ -3845,303 +3941,303 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="27">
         <v>190</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="27">
+      <c r="I28" s="30">
         <f t="shared" si="2"/>
         <v>42586</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="30">
         <f t="shared" si="3"/>
         <v>136692.43</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="30">
         <f t="shared" si="4"/>
         <v>227664.43</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="30">
         <f t="shared" si="5"/>
         <v>124209.42999999996</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="35">
+      <c r="B29" s="37">
         <v>6</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="40">
         <f>'tabela consumo'!$H$9:H29</f>
         <v>1241.0030000000002</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="27">
         <v>200</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="27">
+      <c r="I29" s="30">
         <f t="shared" si="2"/>
         <v>25880</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="30">
         <f t="shared" si="3"/>
         <v>124939.39999999997</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="30">
         <f t="shared" si="4"/>
         <v>220699.4</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="30">
         <f t="shared" si="5"/>
         <v>111799.39999999997</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="27">
         <v>210</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="27">
+      <c r="I30" s="30">
         <f t="shared" si="2"/>
         <v>9174</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="30">
         <f t="shared" si="3"/>
         <v>113186.36999999997</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="30">
         <f t="shared" si="4"/>
         <v>213734.37</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="30">
         <f t="shared" si="5"/>
         <v>99389.369999999966</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="27">
         <v>220</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="27">
+      <c r="I31" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="27">
+        <v>-7532.0000000000582</v>
+      </c>
+      <c r="J31" s="30">
         <f t="shared" si="3"/>
         <v>101433.33999999997</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="30">
         <f t="shared" si="4"/>
         <v>206769.34</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="30">
         <f t="shared" si="5"/>
         <v>86979.339999999967</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="41"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="27">
         <v>230</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27">
+      <c r="J32" s="30">
         <f t="shared" si="3"/>
         <v>89680.31</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="30">
         <f t="shared" si="4"/>
         <v>199804.31</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="30">
         <f t="shared" si="5"/>
         <v>74569.309999999939</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="41"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="27">
         <v>240</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="27">
+      <c r="J33" s="30">
         <f t="shared" si="3"/>
         <v>77927.27999999997</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="30">
         <f t="shared" si="4"/>
         <v>192839.28</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="30">
         <f t="shared" si="5"/>
         <v>62159.27999999997</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="41"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="27">
         <v>250</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="27">
+      <c r="J34" s="30">
         <f t="shared" si="3"/>
         <v>66174.25</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K34" s="30">
         <f t="shared" si="4"/>
         <v>185874.25</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="30">
         <f t="shared" si="5"/>
         <v>49749.249999999942</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E35" s="41"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="27">
         <v>260</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="27">
+      <c r="J35" s="30">
         <f t="shared" si="3"/>
         <v>54421.219999999972</v>
       </c>
-      <c r="K35" s="27">
+      <c r="K35" s="30">
         <f t="shared" si="4"/>
         <v>178909.22</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="30">
         <f t="shared" si="5"/>
         <v>37339.219999999972</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="41"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="27">
         <v>270</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="27">
+      <c r="J36" s="30">
         <f t="shared" si="3"/>
         <v>42668.189999999944</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="30">
         <f t="shared" si="4"/>
         <v>171944.19</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="30">
         <f t="shared" si="5"/>
         <v>24929.189999999944</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="41"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="27">
         <v>280</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="27">
+      <c r="J37" s="30">
         <f t="shared" si="3"/>
         <v>30915.159999999974</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="30">
         <f t="shared" si="4"/>
         <v>164979.15999999997</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="30">
         <f t="shared" si="5"/>
         <v>12519.159999999974</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="41"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="27">
         <v>290</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="27">
+      <c r="J38" s="30">
         <f t="shared" si="3"/>
         <v>19162.129999999946</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="30">
         <f t="shared" si="4"/>
         <v>158014.12999999998</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="30">
         <f t="shared" si="5"/>
         <v>109.12999999994645</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="41"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="27">
         <v>300</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="27">
+      <c r="J39" s="30">
         <f t="shared" si="3"/>
         <v>7409.0999999999767</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K39" s="30">
         <f t="shared" si="4"/>
         <v>151049.09999999998</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L39" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-12300.900000000023</v>
       </c>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="41"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="27">
         <v>310</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="27">
+      <c r="J40" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="27">
+        <v>-4343.9300000000512</v>
+      </c>
+      <c r="K40" s="30">
         <f t="shared" si="4"/>
         <v>144084.06999999998</v>
       </c>
       <c r="L40" s="27"/>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E41" s="41"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="27">
         <v>320</v>
       </c>
@@ -4149,14 +4245,14 @@
       <c r="H41" s="28"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="27">
+      <c r="K41" s="30">
         <f t="shared" si="4"/>
         <v>137119.03999999998</v>
       </c>
       <c r="L41" s="27"/>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E42" s="41"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="27">
         <v>330</v>
       </c>
@@ -4164,14 +4260,14 @@
       <c r="H42" s="28"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
-      <c r="K42" s="27">
+      <c r="K42" s="30">
         <f t="shared" si="4"/>
         <v>130154.00999999998</v>
       </c>
       <c r="L42" s="27"/>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E43" s="41"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="27">
         <v>340</v>
       </c>
@@ -4179,14 +4275,14 @@
       <c r="H43" s="28"/>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="27">
+      <c r="K43" s="30">
         <f t="shared" si="4"/>
         <v>123188.97999999998</v>
       </c>
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E44" s="41"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="27">
         <v>350</v>
       </c>
@@ -4194,14 +4290,14 @@
       <c r="H44" s="28"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="27">
+      <c r="K44" s="30">
         <f t="shared" si="4"/>
         <v>116223.94999999998</v>
       </c>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E45" s="41"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="27">
         <v>360</v>
       </c>
@@ -4209,14 +4305,14 @@
       <c r="H45" s="28"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="27">
+      <c r="K45" s="30">
         <f t="shared" si="4"/>
         <v>109258.91999999998</v>
       </c>
       <c r="L45" s="27"/>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E46" s="41"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="27">
         <v>370</v>
       </c>
@@ -4224,14 +4320,14 @@
       <c r="H46" s="28"/>
       <c r="I46" s="27"/>
       <c r="J46" s="27"/>
-      <c r="K46" s="27">
+      <c r="K46" s="30">
         <f t="shared" si="4"/>
         <v>102293.88999999998</v>
       </c>
       <c r="L46" s="27"/>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E47" s="41"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="27">
         <v>380</v>
       </c>
@@ -4239,14 +4335,14 @@
       <c r="H47" s="28"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
-      <c r="K47" s="27">
+      <c r="K47" s="30">
         <f t="shared" si="4"/>
         <v>95328.859999999986</v>
       </c>
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E48" s="41"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="27">
         <v>390</v>
       </c>
@@ -4254,14 +4350,14 @@
       <c r="H48" s="28"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
-      <c r="K48" s="27">
+      <c r="K48" s="30">
         <f t="shared" si="4"/>
         <v>88363.829999999958</v>
       </c>
       <c r="L48" s="27"/>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E49" s="41"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="27">
         <v>400</v>
       </c>
@@ -4269,14 +4365,14 @@
       <c r="H49" s="28"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
-      <c r="K49" s="27">
+      <c r="K49" s="30">
         <f t="shared" si="4"/>
         <v>81398.799999999988</v>
       </c>
       <c r="L49" s="27"/>
     </row>
     <row r="50" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E50" s="41"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="27">
         <v>410</v>
       </c>
@@ -4284,14 +4380,14 @@
       <c r="H50" s="28"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="27">
+      <c r="K50" s="30">
         <f t="shared" si="4"/>
         <v>74433.76999999996</v>
       </c>
       <c r="L50" s="27"/>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E51" s="41"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="27">
         <v>420</v>
       </c>
@@ -4299,14 +4395,14 @@
       <c r="H51" s="28"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
-      <c r="K51" s="27">
+      <c r="K51" s="30">
         <f t="shared" si="4"/>
         <v>67468.739999999991</v>
       </c>
       <c r="L51" s="27"/>
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E52" s="41"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="27">
         <v>430</v>
       </c>
@@ -4314,14 +4410,14 @@
       <c r="H52" s="28"/>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
-      <c r="K52" s="27">
+      <c r="K52" s="30">
         <f t="shared" si="4"/>
         <v>60503.709999999963</v>
       </c>
       <c r="L52" s="27"/>
     </row>
     <row r="53" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E53" s="41"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="27">
         <v>440</v>
       </c>
@@ -4329,14 +4425,14 @@
       <c r="H53" s="28"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
-      <c r="K53" s="27">
+      <c r="K53" s="30">
         <f t="shared" si="4"/>
         <v>53538.679999999993</v>
       </c>
       <c r="L53" s="27"/>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E54" s="41"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="27">
         <v>450</v>
       </c>
@@ -4344,14 +4440,14 @@
       <c r="H54" s="28"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
-      <c r="K54" s="27">
+      <c r="K54" s="30">
         <f t="shared" si="4"/>
         <v>46573.649999999965</v>
       </c>
       <c r="L54" s="27"/>
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E55" s="41"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="27">
         <v>460</v>
       </c>
@@ -4359,14 +4455,14 @@
       <c r="H55" s="28"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
-      <c r="K55" s="27">
+      <c r="K55" s="30">
         <f t="shared" si="4"/>
         <v>39608.619999999995</v>
       </c>
       <c r="L55" s="27"/>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E56" s="41"/>
+      <c r="E56" s="47"/>
       <c r="F56" s="27">
         <v>470</v>
       </c>
@@ -4374,14 +4470,14 @@
       <c r="H56" s="28"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
-      <c r="K56" s="27">
+      <c r="K56" s="30">
         <f t="shared" si="4"/>
         <v>32643.589999999967</v>
       </c>
       <c r="L56" s="27"/>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E57" s="41"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="27">
         <v>480</v>
       </c>
@@ -4389,14 +4485,14 @@
       <c r="H57" s="28"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
-      <c r="K57" s="27">
+      <c r="K57" s="30">
         <f t="shared" si="4"/>
         <v>25678.559999999998</v>
       </c>
       <c r="L57" s="27"/>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E58" s="41"/>
+      <c r="E58" s="47"/>
       <c r="F58" s="27">
         <v>490</v>
       </c>
@@ -4404,14 +4500,14 @@
       <c r="H58" s="28"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
-      <c r="K58" s="27">
+      <c r="K58" s="30">
         <f t="shared" si="4"/>
         <v>18713.52999999997</v>
       </c>
       <c r="L58" s="27"/>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E59" s="41"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="27">
         <v>500</v>
       </c>
@@ -4419,14 +4515,14 @@
       <c r="H59" s="28"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
-      <c r="K59" s="27">
+      <c r="K59" s="30">
         <f t="shared" si="4"/>
         <v>11748.5</v>
       </c>
       <c r="L59" s="27"/>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E60" s="41"/>
+      <c r="E60" s="47"/>
       <c r="F60" s="27">
         <v>510</v>
       </c>
@@ -4434,14 +4530,14 @@
       <c r="H60" s="28"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
-      <c r="K60" s="27">
+      <c r="K60" s="30">
         <f t="shared" si="4"/>
         <v>4783.4699999999721</v>
       </c>
       <c r="L60" s="27"/>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E61" s="42"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="27">
         <v>520</v>
       </c>
@@ -4449,9 +4545,9 @@
       <c r="H61" s="28"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
-      <c r="K61" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K61" s="30">
+        <f t="shared" si="4"/>
+        <v>-2181.5599999999977</v>
       </c>
       <c r="L61" s="27"/>
     </row>
@@ -4517,6 +4613,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:B8"/>
@@ -4531,10 +4631,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/relatorios/tabela testes consumo.xlsx
+++ b/relatorios/tabela testes consumo.xlsx
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Valor W</t>
-  </si>
-  <si>
-    <t>Tempo de operação em segundos</t>
   </si>
   <si>
     <t>Duração total do circuito</t>
@@ -130,7 +127,10 @@
     <t xml:space="preserve"> Teste(nº) </t>
   </si>
   <si>
-    <t>Equação utilizada para calcular as horas: =(360000/((0,133*F9)+F10+(75,233*F11)))/(3600/(F9+F10+F11))</t>
+    <t>Consumo por hora(mAh)</t>
+  </si>
+  <si>
+    <t>Tempo de operação (s)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +168,9 @@
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown"/>
     </fill>
   </fills>
   <borders count="10">
@@ -295,21 +298,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,13 +318,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -374,14 +362,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,9 +385,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,6 +404,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +481,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>grafico</a:t>
+              <a:t>Gráfico</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
@@ -565,38 +563,239 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$G$9:$G$61</c:f>
+              <c:f>'tabela grafico'!$G$9:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310152</c:v>
+                  <c:v>86.153333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260304</c:v>
+                  <c:v>72.306666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210456</c:v>
+                  <c:v>58.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160608</c:v>
+                  <c:v>44.61333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110760</c:v>
+                  <c:v>30.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60912</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11064</c:v>
+                  <c:v>3.0733333333333235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-38784</c:v>
+                  <c:v>-10.773333333333341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,38 +833,239 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$H$9:$H$61</c:f>
+              <c:f>'tabela grafico'!$H$9:$H$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312432</c:v>
+                  <c:v>86.786666666666662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264864</c:v>
+                  <c:v>73.573333333333323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217296</c:v>
+                  <c:v>60.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169728</c:v>
+                  <c:v>47.146666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122160</c:v>
+                  <c:v>33.933333333333323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74592</c:v>
+                  <c:v>20.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27024</c:v>
+                  <c:v>7.5066666666666606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20544</c:v>
+                  <c:v>-5.7066666666666777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,80 +1103,347 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$I$9:$I$61</c:f>
+              <c:f>'tabela grafico'!$I$9:$I$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>343294</c:v>
+                  <c:v>97.679722222222225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>326588</c:v>
+                  <c:v>95.359444444444449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>309882</c:v>
+                  <c:v>93.039166666666659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293176</c:v>
+                  <c:v>90.718888888888884</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276470</c:v>
+                  <c:v>88.398611111111109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>259764</c:v>
+                  <c:v>86.078333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>243058</c:v>
+                  <c:v>83.758055555555558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>226352</c:v>
+                  <c:v>81.437777777777768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209646</c:v>
+                  <c:v>79.117499999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192940</c:v>
+                  <c:v>76.797222222222217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>176233.99999999997</c:v>
+                  <c:v>74.476944444444442</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159527.99999999997</c:v>
+                  <c:v>72.156666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142821.99999999997</c:v>
+                  <c:v>69.836388888888877</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>126115.99999999997</c:v>
+                  <c:v>67.516111111111115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109409.99999999997</c:v>
+                  <c:v>65.195833333333326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92704</c:v>
+                  <c:v>62.87555555555555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75998</c:v>
+                  <c:v>60.555277777777775</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59292</c:v>
+                  <c:v>58.234999999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42586</c:v>
+                  <c:v>55.914722222222217</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25880</c:v>
+                  <c:v>53.594444444444441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9174</c:v>
+                  <c:v>51.274166666666659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7532.0000000000582</c:v>
+                  <c:v>48.953888888888883</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.633611111111108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.313333333333325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.99305555555555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.672777777777767</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.352499999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.032222222222217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.711944444444441</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.391666666666652</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.071388888888876</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.751111111111101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.430833333333325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.11055555555555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.790277777777774</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.469999999999985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.149722222222209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.829444444444434</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5091666666666583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1888888888888829</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8686111111110932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5483333333333178</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22805555555554236</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.0922222222222331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,107 +1483,401 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$J$9:$J$61</c:f>
+              <c:f>'tabela grafico'!$J$9:$J$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>348246.97</c:v>
+                  <c:v>98.36763472222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>336493.94</c:v>
+                  <c:v>96.735269444444441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>324740.90999999997</c:v>
+                  <c:v>95.102904166666661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>312987.88</c:v>
+                  <c:v>93.470538888888882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301234.84999999998</c:v>
+                  <c:v>91.838173611111102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289481.82</c:v>
+                  <c:v>90.205808333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>277728.78999999998</c:v>
+                  <c:v>88.573443055555558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>265975.76</c:v>
+                  <c:v>86.941077777777778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>254222.72999999998</c:v>
+                  <c:v>85.308712499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242469.69999999998</c:v>
+                  <c:v>83.676347222222219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>230716.66999999998</c:v>
+                  <c:v>82.04398194444444</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218963.63999999998</c:v>
+                  <c:v>80.41161666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>207210.61</c:v>
+                  <c:v>78.779251388888881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195457.58</c:v>
+                  <c:v>77.146886111111115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>183704.55</c:v>
+                  <c:v>75.514520833333336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>171951.52</c:v>
+                  <c:v>73.882155555555556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>160198.49</c:v>
+                  <c:v>72.249790277777777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148445.46</c:v>
+                  <c:v>70.617424999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>136692.43</c:v>
+                  <c:v>68.985059722222218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>124939.39999999997</c:v>
+                  <c:v>67.352694444444438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>113186.36999999997</c:v>
+                  <c:v>65.720329166666659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101433.33999999997</c:v>
+                  <c:v>64.087963888888879</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89680.31</c:v>
+                  <c:v>62.455598611111107</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77927.27999999997</c:v>
+                  <c:v>60.823233333333327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66174.25</c:v>
+                  <c:v>59.190868055555548</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54421.219999999972</c:v>
+                  <c:v>57.558502777777768</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42668.189999999944</c:v>
+                  <c:v>55.926137499999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30915.159999999974</c:v>
+                  <c:v>54.293772222222216</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19162.129999999946</c:v>
+                  <c:v>52.661406944444437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7409.0999999999767</c:v>
+                  <c:v>51.029041666666657</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4343.9300000000512</c:v>
+                  <c:v>49.396676388888878</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47.764311111111098</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.131945833333326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.499580555555546</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.867215277777767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.234849999999987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.602484722222215</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.970119444444435</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.337754166666656</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.705388888888876</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.073023611111097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.440658333333317</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.808293055555538</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.175927777777758</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.543562499999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.911197222222214</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.278831944444434</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.646466666666655</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.014101388888875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.381736111111096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.749370833333316</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.117005555555536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.484640277777757</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.852274999999977</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.219909722222212</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5875444444444327</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.9551791666666531</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.3228138888888736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.6904486111110941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0580833333333146</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4257180555555351</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.2066472222222444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,170 +1917,371 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$K$9:$K$61</c:f>
+              <c:f>'tabela grafico'!$K$9:$K$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353034.97</c:v>
+                  <c:v>98.065269444444439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346069.94</c:v>
+                  <c:v>96.130538888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>339104.91</c:v>
+                  <c:v>94.195808333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332139.88</c:v>
+                  <c:v>92.261077777777771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325174.84999999998</c:v>
+                  <c:v>90.326347222222225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>318209.82</c:v>
+                  <c:v>88.391616666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>311244.78999999998</c:v>
+                  <c:v>86.456886111111103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304279.76</c:v>
+                  <c:v>84.522155555555557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>297314.73</c:v>
+                  <c:v>82.587424999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>290349.7</c:v>
+                  <c:v>80.65269444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>283384.67</c:v>
+                  <c:v>78.717963888888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>276419.64</c:v>
+                  <c:v>76.783233333333328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>269454.61</c:v>
+                  <c:v>74.848502777777782</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>262489.57999999996</c:v>
+                  <c:v>72.913772222222221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>255524.55</c:v>
+                  <c:v>70.97904166666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248559.52</c:v>
+                  <c:v>69.044311111111114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>241594.49</c:v>
+                  <c:v>67.109580555555553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>234629.46</c:v>
+                  <c:v>65.174849999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>227664.43</c:v>
+                  <c:v>63.240119444444439</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>220699.4</c:v>
+                  <c:v>61.305388888888885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213734.37</c:v>
+                  <c:v>59.370658333333331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206769.34</c:v>
+                  <c:v>57.435927777777771</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>199804.31</c:v>
+                  <c:v>55.501197222222217</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>192839.28</c:v>
+                  <c:v>53.566466666666663</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185874.25</c:v>
+                  <c:v>51.631736111111103</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>178909.22</c:v>
+                  <c:v>49.697005555555549</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>171944.19</c:v>
+                  <c:v>47.762274999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>164979.15999999997</c:v>
+                  <c:v>45.827544444444435</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>158014.12999999998</c:v>
+                  <c:v>43.892813888888881</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>151049.09999999998</c:v>
+                  <c:v>41.958083333333327</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>144084.06999999998</c:v>
+                  <c:v>40.023352777777774</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>137119.03999999998</c:v>
+                  <c:v>38.088622222222213</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>130154.00999999998</c:v>
+                  <c:v>36.153891666666659</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>123188.97999999998</c:v>
+                  <c:v>34.219161111111106</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116223.94999999998</c:v>
+                  <c:v>32.284430555555545</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>109258.91999999998</c:v>
+                  <c:v>30.349699999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>102293.88999999998</c:v>
+                  <c:v>28.414969444444438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95328.859999999986</c:v>
+                  <c:v>26.480238888888877</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88363.829999999958</c:v>
+                  <c:v>24.545508333333331</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81398.799999999988</c:v>
+                  <c:v>22.61077777777777</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>74433.76999999996</c:v>
+                  <c:v>20.676047222222209</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>67468.739999999991</c:v>
+                  <c:v>18.741316666666663</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>60503.709999999963</c:v>
+                  <c:v>16.806586111111102</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>53538.679999999993</c:v>
+                  <c:v>14.871855555555541</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46573.649999999965</c:v>
+                  <c:v>12.937124999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39608.619999999995</c:v>
+                  <c:v>11.002394444444434</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32643.589999999967</c:v>
+                  <c:v>9.0676638888888732</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25678.559999999998</c:v>
+                  <c:v>7.1329333333333267</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18713.52999999997</c:v>
+                  <c:v>5.198202777777766</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11748.5</c:v>
+                  <c:v>3.2634722222222052</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4783.4699999999721</c:v>
+                  <c:v>1.3287416666666587</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2181.5599999999977</c:v>
+                  <c:v>-0.60598888888890201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,104 +2321,305 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'tabela grafico'!$F$9:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tabela grafico'!$L$9:$L$61</c:f>
+              <c:f>'tabela grafico'!$L$9:$L$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>360000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347589.97</c:v>
+                  <c:v>96.552769444444451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335179.94</c:v>
+                  <c:v>93.105538888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322769.90999999997</c:v>
+                  <c:v>89.658308333333338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310359.88</c:v>
+                  <c:v>86.211077777777774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297949.84999999998</c:v>
+                  <c:v>82.763847222222225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285539.82</c:v>
+                  <c:v>79.316616666666661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273129.78999999998</c:v>
+                  <c:v>75.869386111111112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260719.75999999998</c:v>
+                  <c:v>72.422155555555548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248309.72999999998</c:v>
+                  <c:v>68.974924999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>235899.69999999998</c:v>
+                  <c:v>65.52769444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223489.66999999998</c:v>
+                  <c:v>62.080463888888886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211079.63999999998</c:v>
+                  <c:v>58.63323333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198669.61</c:v>
+                  <c:v>55.186002777777773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>186259.58</c:v>
+                  <c:v>51.738772222222217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>173849.55</c:v>
+                  <c:v>48.29154166666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>161439.51999999996</c:v>
+                  <c:v>44.844311111111104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>149029.48999999996</c:v>
+                  <c:v>41.397080555555547</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136619.45999999996</c:v>
+                  <c:v>37.949849999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124209.42999999996</c:v>
+                  <c:v>34.502619444444434</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>111799.39999999997</c:v>
+                  <c:v>31.055388888888885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99389.369999999966</c:v>
+                  <c:v>27.608158333333321</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86979.339999999967</c:v>
+                  <c:v>24.160927777777772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74569.309999999939</c:v>
+                  <c:v>20.713697222222208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62159.27999999997</c:v>
+                  <c:v>17.266466666666659</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49749.249999999942</c:v>
+                  <c:v>13.819236111111096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37339.219999999972</c:v>
+                  <c:v>10.372005555555546</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24929.189999999944</c:v>
+                  <c:v>6.9247749999999826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12519.159999999974</c:v>
+                  <c:v>3.4775444444444332</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>109.12999999994645</c:v>
+                  <c:v>3.0313888888869656E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-12300.900000000023</c:v>
+                  <c:v>-3.4169166666666797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,6 +2719,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1397,14 +2761,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
-        <c:tickMarkSkip val="5"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1326557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1516,66 +2880,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1326555040"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="tenThousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1050"/>
-                    <a:t>x 10000</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1593,8 +2900,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.74164721927249877"/>
           <c:y val="0.1369721284839395"/>
-          <c:w val="0.12053073177033802"/>
-          <c:h val="0.38653752806186698"/>
+          <c:w val="0.11648922149181121"/>
+          <c:h val="0.38546875296835637"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1660,6 +2967,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2221,15 +3529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6163</xdr:rowOff>
+      <xdr:colOff>62129</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25213</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2249,6 +3557,335 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21259</cdr:x>
+      <cdr:y>0.72479</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28345</cdr:x>
+      <cdr:y>0.7936</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="47" name="Texto Explicativo 1 46"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1467617" y="2932386"/>
+          <a:ext cx="489187" cy="278395"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100328"/>
+            <a:gd name="adj2" fmla="val 47680"/>
+            <a:gd name="adj3" fmla="val 198030"/>
+            <a:gd name="adj4" fmla="val -39685"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000"/>
+            <a:t>75,68</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90067</cdr:x>
+      <cdr:y>0.65959</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97807</cdr:x>
+      <cdr:y>0.71935</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="50" name="Texto Explicativo 1 49"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6053247" y="2668596"/>
+          <a:ext cx="520212" cy="241788"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 103599"/>
+            <a:gd name="adj2" fmla="val 49020"/>
+            <a:gd name="adj3" fmla="val 336743"/>
+            <a:gd name="adj4" fmla="val 70491"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>612,6</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.77748</cdr:x>
+      <cdr:y>0.59077</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85379</cdr:x>
+      <cdr:y>0.65416</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="51" name="Texto Explicativo 1 50"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5225303" y="2390172"/>
+          <a:ext cx="512885" cy="256443"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 101606"/>
+            <a:gd name="adj2" fmla="val 53692"/>
+            <a:gd name="adj3" fmla="val 426785"/>
+            <a:gd name="adj4" fmla="val 53583"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>516,9</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64665</cdr:x>
+      <cdr:y>0.51833</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72188</cdr:x>
+      <cdr:y>0.58715</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="52" name="Texto Explicativo 1 51"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4346074" y="2097096"/>
+          <a:ext cx="505557" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 102961"/>
+            <a:gd name="adj2" fmla="val 54354"/>
+            <a:gd name="adj3" fmla="val 499342"/>
+            <a:gd name="adj4" fmla="val 61514"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>430,9</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47986</cdr:x>
+      <cdr:y>0.7266</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53982</cdr:x>
+      <cdr:y>0.78998</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="53" name="Texto Explicativo 1 52"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3225054" y="2939692"/>
+          <a:ext cx="402981" cy="256443"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95893"/>
+            <a:gd name="adj2" fmla="val 53431"/>
+            <a:gd name="adj3" fmla="val 209643"/>
+            <a:gd name="adj4" fmla="val 21961"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>290</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08006</cdr:x>
+      <cdr:y>0.7235</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14656</cdr:x>
+      <cdr:y>0.79413</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="54" name="Texto Explicativo 1 53"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="552727" y="2927163"/>
+          <a:ext cx="459088" cy="285757"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98237"/>
+            <a:gd name="adj2" fmla="val 54744"/>
+            <a:gd name="adj3" fmla="val 194551"/>
+            <a:gd name="adj4" fmla="val 148051"/>
+          </a:avLst>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>72,2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,724 +4151,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J15"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" customWidth="1"/>
+    <col min="6" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
         <f>D4*3600</f>
         <v>360000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="K7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>3540</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <f>0.133*F9</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <f>G9+G10+G11</f>
         <v>4984.8</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="36">
+        <f>H9/(F9+F10+F11)</f>
+        <v>1.3846666666666667</v>
+      </c>
+      <c r="J9" s="31">
         <f>D$5/H9</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="J9" s="34">
+      <c r="K9" s="31">
         <f>(360000/((0.133*F9)+G10+(75.233*F11)))/(3600/(F9+F10+F11))</f>
         <v>72.219547424169477</v>
       </c>
-      <c r="K9" s="35">
-        <f>J9/24</f>
+      <c r="L9" s="32">
+        <f>K9/24</f>
         <v>3.0091478093403947</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <f>E10*F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="2" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
         <v>75.233000000000004</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>60</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <f>75.233*F11</f>
         <v>4513.9800000000005</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37">
+      <c r="H11" s="30"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>3540</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <f>E13*F13</f>
         <v>470.82000000000005</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="30">
         <f>G13+G14+G15</f>
         <v>4756.8</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="36">
+        <f>H13/(F13+F14+F15)</f>
+        <v>1.3213333333333335</v>
+      </c>
+      <c r="J13" s="31">
         <f>D$5/H13</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="J13" s="34">
-        <f>I13/(3600/(F13+F14+F15))</f>
+      <c r="K13" s="31">
+        <f>J13/(3600/(F13+F14+F15))</f>
         <v>75.681130171543899</v>
       </c>
-      <c r="K13" s="35">
-        <f>J13/24</f>
+      <c r="L13" s="32">
+        <f>K13/24</f>
         <v>3.1533804238143293</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <f>E14*F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="2" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8">
         <v>71.433000000000007</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>60</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <f t="shared" ref="G15" si="0">E15*F15</f>
         <v>4285.9800000000005</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37">
+      <c r="H15" s="30"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>7190</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f>E17*F17</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <f>G17+G18+G19</f>
         <v>1670.6000000000001</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="36">
+        <f>H17/(F17+F18+F19)</f>
+        <v>0.2320277777777778</v>
+      </c>
+      <c r="J17" s="31">
         <f>D$5/H17</f>
         <v>215.49144020112533</v>
       </c>
-      <c r="J17" s="34">
-        <f>I17/(3600/(F17+F18+F19))</f>
+      <c r="K17" s="31">
+        <f>J17/(3600/(F17+F18+F19))</f>
         <v>430.98288040225066</v>
       </c>
-      <c r="K17" s="35">
-        <f>J17/24</f>
+      <c r="L17" s="32">
+        <f>K17/24</f>
         <v>17.957620016760444</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <f>E18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="2" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8">
         <v>71.433000000000007</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>10</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <f t="shared" ref="G19" si="1">E19*F19</f>
         <v>714.33</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37">
+      <c r="H19" s="30"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="33">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>7190</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <f>E21*F21</f>
         <v>956.2700000000001</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="30">
         <f>G21+G22+G23</f>
         <v>1175.3030000000001</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="36">
+        <f>H21/(F21+F22+F23)</f>
+        <v>0.16323652777777781</v>
+      </c>
+      <c r="J21" s="31">
         <f>D$5/H21</f>
         <v>306.30399139626121</v>
       </c>
-      <c r="J21" s="34">
-        <f>I21/(3600/(F21+F22+F23))</f>
+      <c r="K21" s="31">
+        <f>J21/(3600/(F21+F22+F23))</f>
         <v>612.60798279252242</v>
       </c>
-      <c r="K21" s="35">
-        <f>J21/24</f>
+      <c r="L21" s="32">
+        <f>K21/24</f>
         <v>25.525332616355101</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>9</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="7">
         <f>E22*F22</f>
         <v>147.6</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="2" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8">
         <v>71.433000000000007</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <f t="shared" ref="G23" si="2">E23*F23</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37">
+      <c r="H23" s="30"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+    </row>
+    <row r="25" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="33">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>3590</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <f>E25*F25</f>
         <v>477.47</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <f>G25+G26+G27</f>
         <v>696.50300000000004</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="36">
+        <f>H25/(F25+F26+F27)</f>
+        <v>0.19347305555555558</v>
+      </c>
+      <c r="J25" s="31">
         <f>D$5/H25</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="J25" s="34">
-        <f>I25/(3600/(F25+F26+F27))</f>
+      <c r="K25" s="31">
+        <f>J25/(3600/(F25+F26+F27))</f>
         <v>516.86783832948311</v>
       </c>
-      <c r="K25" s="35">
-        <f>J25/24</f>
+      <c r="L25" s="32">
+        <f>K25/24</f>
         <v>21.536159930395129</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <v>9</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <f>E26*F26</f>
         <v>147.6</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="2" t="s">
+      <c r="H26" s="30"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="2:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
         <v>71.433000000000007</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="7">
         <f t="shared" ref="G27" si="3">E27*F27</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37">
+      <c r="H27" s="30"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="7">
         <v>3590</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="7">
         <f>E29*F29</f>
         <v>477.47</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="30">
         <f>G29+G30+G31</f>
         <v>1241.0030000000002</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="36">
+        <f>H29/(F29+F30+F31)</f>
+        <v>0.3447230555555556</v>
+      </c>
+      <c r="J29" s="31">
         <f>D$5/H29</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="J29" s="34">
-        <f>I29/(3600/(F29+F30+F31))</f>
+      <c r="K29" s="31">
+        <f>J29/(3600/(F29+F30+F31))</f>
         <v>290.08793693488246</v>
       </c>
-      <c r="K29" s="35">
-        <f>J29/24</f>
+      <c r="L29" s="32">
+        <f>K29/24</f>
         <v>12.086997372286769</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="8">
         <v>76.900000000000006</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="7">
         <v>9</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="7">
         <f>E30*F30</f>
         <v>692.1</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" spans="2:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="2" t="s">
+      <c r="H30" s="30"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="2:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="8">
         <v>71.433000000000007</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="7">
         <f t="shared" ref="G31" si="4">E31*F31</f>
         <v>71.433000000000007</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H13:H15"/>
+  <mergeCells count="47">
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="H21:H23"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="G3:K4"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3240,1380 +4928,1711 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L81"/>
+  <dimension ref="B3:R81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21" customWidth="1"/>
-    <col min="7" max="12" width="9.28515625" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="12" width="9.28515625" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="29">
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="24">
         <v>100</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="D4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="22">
         <f>C4* 3600</f>
         <v>360000</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33">
+        <v>1</v>
+      </c>
+      <c r="C9" s="36">
+        <f>'tabela consumo'!$I9:$I11</f>
+        <v>1.3846666666666667</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <f>$C$4 - ($F9*10*$C$9)</f>
+        <v>100</v>
+      </c>
+      <c r="H9" s="22">
+        <f>$C$4 - ($F9*10*$C$13)</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="22">
+        <f>$C$4 - ($F9*10*$C$17)</f>
+        <v>100</v>
+      </c>
+      <c r="J9" s="22">
+        <f>$C$4 - ($F9*10*$C$21)</f>
+        <v>100</v>
+      </c>
+      <c r="K9" s="22">
+        <f>$C$4 - ($F9*10*$C$25)</f>
+        <v>100</v>
+      </c>
+      <c r="L9" s="26">
+        <f>$C$4 - ($F9*10*$C$29)</f>
+        <v>100</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" ref="G10:G17" si="0">$C$4 - ($F10*10*$C$9)</f>
+        <v>86.153333333333336</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" ref="H10:H17" si="1">$C$4 - ($F10*10*$C$13)</f>
+        <v>86.786666666666662</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" ref="I10:I53" si="2">$C$4 - ($F10*10*$C$17)</f>
+        <v>97.679722222222225</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" ref="J10:J71" si="3">$C$4 - ($F10*10*$C$21)</f>
+        <v>98.36763472222222</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" ref="K10:K61" si="4">$C$4 - ($F10*10*$C$25)</f>
+        <v>98.065269444444439</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" ref="L10:L39" si="5">$C$4 - ($F10*10*$C$29)</f>
+        <v>96.552769444444451</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="27">
+        <v>2</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="0"/>
+        <v>72.306666666666672</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="1"/>
+        <v>73.573333333333323</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="2"/>
+        <v>95.359444444444449</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="3"/>
+        <v>96.735269444444441</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="4"/>
+        <v>96.130538888888893</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="5"/>
+        <v>93.105538888888887</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="27">
+        <v>3</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>58.46</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="1"/>
+        <v>60.36</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="2"/>
+        <v>93.039166666666659</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="3"/>
+        <v>95.102904166666661</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="4"/>
+        <v>94.195808333333332</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="5"/>
+        <v>89.658308333333338</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="33">
+        <v>2</v>
+      </c>
+      <c r="C13" s="36">
+        <f>'tabela consumo'!$I$9:I13</f>
+        <v>1.3213333333333335</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="27">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>44.61333333333333</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="1"/>
+        <v>47.146666666666661</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="2"/>
+        <v>90.718888888888884</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="3"/>
+        <v>93.470538888888882</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="4"/>
+        <v>92.261077777777771</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="5"/>
+        <v>86.211077777777774</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="27">
+        <v>5</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>30.766666666666666</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="1"/>
+        <v>33.933333333333323</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="2"/>
+        <v>88.398611111111109</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="3"/>
+        <v>91.838173611111102</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="4"/>
+        <v>90.326347222222225</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="5"/>
+        <v>82.763847222222225</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="27">
+        <v>6</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="0"/>
+        <v>16.920000000000002</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="1"/>
+        <v>20.72</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="2"/>
+        <v>86.078333333333333</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="3"/>
+        <v>90.205808333333337</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="4"/>
+        <v>88.391616666666664</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="5"/>
+        <v>79.316616666666661</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="27">
+        <v>7</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="0"/>
+        <v>3.0733333333333235</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="1"/>
+        <v>7.5066666666666606</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="2"/>
+        <v>83.758055555555558</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="3"/>
+        <v>88.573443055555558</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="4"/>
+        <v>86.456886111111103</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="5"/>
+        <v>75.869386111111112</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="33">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36">
+        <f>'tabela consumo'!$I$9:I17</f>
+        <v>0.2320277777777778</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="27">
+        <v>8</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>-10.773333333333341</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="1"/>
+        <v>-5.7066666666666777</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="2"/>
+        <v>81.437777777777768</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="3"/>
+        <v>86.941077777777778</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="4"/>
+        <v>84.522155555555557</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="5"/>
+        <v>72.422155555555548</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="27">
+        <v>9</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27">
+        <f t="shared" si="2"/>
+        <v>79.117499999999993</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="3"/>
+        <v>85.308712499999999</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="4"/>
+        <v>82.587424999999996</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="5"/>
+        <v>68.974924999999999</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="27">
+        <v>10</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27">
+        <f t="shared" si="2"/>
+        <v>76.797222222222217</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="3"/>
+        <v>83.676347222222219</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="4"/>
+        <v>80.65269444444445</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="5"/>
+        <v>65.52769444444445</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="27">
+        <v>11</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27">
+        <f t="shared" si="2"/>
+        <v>74.476944444444442</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="3"/>
+        <v>82.04398194444444</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="4"/>
+        <v>78.717963888888889</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="5"/>
+        <v>62.080463888888886</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="33">
+        <v>4</v>
+      </c>
+      <c r="C21" s="36">
+        <f>'tabela consumo'!$I$9:I21</f>
+        <v>0.16323652777777781</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="27">
+        <v>12</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27">
+        <f t="shared" si="2"/>
+        <v>72.156666666666666</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="3"/>
+        <v>80.41161666666666</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="4"/>
+        <v>76.783233333333328</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="5"/>
+        <v>58.63323333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="27">
+        <v>13</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
+        <v>69.836388888888877</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="3"/>
+        <v>78.779251388888881</v>
+      </c>
+      <c r="K22" s="27">
+        <f t="shared" si="4"/>
+        <v>74.848502777777782</v>
+      </c>
+      <c r="L22" s="27">
+        <f t="shared" si="5"/>
+        <v>55.186002777777773</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="27">
+        <v>14</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>67.516111111111115</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="3"/>
+        <v>77.146886111111115</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="4"/>
+        <v>72.913772222222221</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="5"/>
+        <v>51.738772222222217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="27">
+        <v>15</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>65.195833333333326</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="3"/>
+        <v>75.514520833333336</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="4"/>
+        <v>70.97904166666666</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="5"/>
+        <v>48.29154166666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="33">
+        <v>5</v>
+      </c>
+      <c r="C25" s="36">
+        <f>'tabela consumo'!I$9:$I25</f>
+        <v>0.19347305555555558</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="27">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>62.87555555555555</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" si="3"/>
+        <v>73.882155555555556</v>
+      </c>
+      <c r="K25" s="27">
+        <f t="shared" si="4"/>
+        <v>69.044311111111114</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="5"/>
+        <v>44.844311111111104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="27">
+        <v>17</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>60.555277777777775</v>
+      </c>
+      <c r="J26" s="27">
+        <f t="shared" si="3"/>
+        <v>72.249790277777777</v>
+      </c>
+      <c r="K26" s="27">
+        <f t="shared" si="4"/>
+        <v>67.109580555555553</v>
+      </c>
+      <c r="L26" s="27">
+        <f t="shared" si="5"/>
+        <v>41.397080555555547</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="27">
+        <v>18</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="27">
+        <f t="shared" si="2"/>
+        <v>58.234999999999992</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="3"/>
+        <v>70.617424999999997</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="4"/>
+        <v>65.174849999999992</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="5"/>
+        <v>37.949849999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="27">
+        <v>19</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>55.914722222222217</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="3"/>
+        <v>68.985059722222218</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="4"/>
+        <v>63.240119444444439</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="5"/>
+        <v>34.502619444444434</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="33">
+        <v>6</v>
+      </c>
+      <c r="C29" s="36">
+        <f>'tabela consumo'!$I$9:I29</f>
+        <v>0.3447230555555556</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="27">
+        <v>20</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="27">
+        <f t="shared" si="2"/>
+        <v>53.594444444444441</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="3"/>
+        <v>67.352694444444438</v>
+      </c>
+      <c r="K29" s="27">
+        <f t="shared" si="4"/>
+        <v>61.305388888888885</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="5"/>
+        <v>31.055388888888885</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="27">
+        <v>21</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="27">
+        <f t="shared" si="2"/>
+        <v>51.274166666666659</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="3"/>
+        <v>65.720329166666659</v>
+      </c>
+      <c r="K30" s="27">
+        <f t="shared" si="4"/>
+        <v>59.370658333333331</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="5"/>
+        <v>27.608158333333321</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="27">
+        <v>22</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="27">
+        <f t="shared" si="2"/>
+        <v>48.953888888888883</v>
+      </c>
+      <c r="J31" s="27">
+        <f t="shared" si="3"/>
+        <v>64.087963888888879</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" si="4"/>
+        <v>57.435927777777771</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="5"/>
+        <v>24.160927777777772</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E32" s="45"/>
+      <c r="F32" s="27">
+        <v>23</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="27">
+        <f t="shared" si="2"/>
+        <v>46.633611111111108</v>
+      </c>
+      <c r="J32" s="27">
+        <f t="shared" si="3"/>
+        <v>62.455598611111107</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="4"/>
+        <v>55.501197222222217</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="5"/>
+        <v>20.713697222222208</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E33" s="45"/>
+      <c r="F33" s="27">
+        <v>24</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="27">
+        <f t="shared" si="2"/>
+        <v>44.313333333333325</v>
+      </c>
+      <c r="J33" s="27">
+        <f t="shared" si="3"/>
+        <v>60.823233333333327</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="4"/>
+        <v>53.566466666666663</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="5"/>
+        <v>17.266466666666659</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E34" s="45"/>
+      <c r="F34" s="27">
+        <v>25</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="27">
+        <f t="shared" si="2"/>
+        <v>41.99305555555555</v>
+      </c>
+      <c r="J34" s="27">
+        <f t="shared" si="3"/>
+        <v>59.190868055555548</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="4"/>
+        <v>51.631736111111103</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="5"/>
+        <v>13.819236111111096</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E35" s="45"/>
+      <c r="F35" s="27">
+        <v>26</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="27">
+        <f t="shared" si="2"/>
+        <v>39.672777777777767</v>
+      </c>
+      <c r="J35" s="27">
+        <f t="shared" si="3"/>
+        <v>57.558502777777768</v>
+      </c>
+      <c r="K35" s="27">
+        <f t="shared" si="4"/>
+        <v>49.697005555555549</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="5"/>
+        <v>10.372005555555546</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E36" s="45"/>
+      <c r="F36" s="27">
+        <v>27</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="27">
+        <f t="shared" si="2"/>
+        <v>37.352499999999992</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="3"/>
+        <v>55.926137499999989</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="4"/>
+        <v>47.762274999999995</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="5"/>
+        <v>6.9247749999999826</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="45"/>
+      <c r="F37" s="27">
+        <v>28</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="27">
+        <f t="shared" si="2"/>
+        <v>35.032222222222217</v>
+      </c>
+      <c r="J37" s="27">
+        <f t="shared" si="3"/>
+        <v>54.293772222222216</v>
+      </c>
+      <c r="K37" s="27">
+        <f t="shared" si="4"/>
+        <v>45.827544444444435</v>
+      </c>
+      <c r="L37" s="27">
+        <f t="shared" si="5"/>
+        <v>3.4775444444444332</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="45"/>
+      <c r="F38" s="27">
+        <v>29</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="27">
+        <f t="shared" si="2"/>
+        <v>32.711944444444441</v>
+      </c>
+      <c r="J38" s="27">
+        <f t="shared" si="3"/>
+        <v>52.661406944444437</v>
+      </c>
+      <c r="K38" s="27">
+        <f t="shared" si="4"/>
+        <v>43.892813888888881</v>
+      </c>
+      <c r="L38" s="27">
+        <f t="shared" si="5"/>
+        <v>3.0313888888869656E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E39" s="45"/>
+      <c r="F39" s="27">
+        <v>30</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="27">
+        <f t="shared" si="2"/>
+        <v>30.391666666666652</v>
+      </c>
+      <c r="J39" s="27">
+        <f t="shared" si="3"/>
+        <v>51.029041666666657</v>
+      </c>
+      <c r="K39" s="27">
+        <f t="shared" si="4"/>
+        <v>41.958083333333327</v>
+      </c>
+      <c r="L39" s="27">
+        <f t="shared" si="5"/>
+        <v>-3.4169166666666797</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E40" s="45"/>
+      <c r="F40" s="27">
+        <v>31</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="27">
+        <f t="shared" si="2"/>
+        <v>28.071388888888876</v>
+      </c>
+      <c r="J40" s="27">
+        <f t="shared" si="3"/>
+        <v>49.396676388888878</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="4"/>
+        <v>40.023352777777774</v>
+      </c>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="45"/>
+      <c r="F41" s="27">
+        <v>32</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="27">
+        <f t="shared" si="2"/>
+        <v>25.751111111111101</v>
+      </c>
+      <c r="J41" s="27">
+        <f t="shared" si="3"/>
+        <v>47.764311111111098</v>
+      </c>
+      <c r="K41" s="27">
+        <f t="shared" si="4"/>
+        <v>38.088622222222213</v>
+      </c>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E42" s="45"/>
+      <c r="F42" s="27">
+        <v>33</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="27">
+        <f t="shared" si="2"/>
+        <v>23.430833333333325</v>
+      </c>
+      <c r="J42" s="27">
+        <f t="shared" si="3"/>
+        <v>46.131945833333326</v>
+      </c>
+      <c r="K42" s="27">
+        <f t="shared" si="4"/>
+        <v>36.153891666666659</v>
+      </c>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E43" s="45"/>
+      <c r="F43" s="27">
+        <v>34</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="27">
+        <f t="shared" si="2"/>
+        <v>21.11055555555555</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" si="3"/>
+        <v>44.499580555555546</v>
+      </c>
+      <c r="K43" s="27">
+        <f t="shared" si="4"/>
+        <v>34.219161111111106</v>
+      </c>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E44" s="45"/>
+      <c r="F44" s="27">
         <v>35</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="37">
-        <v>1</v>
-      </c>
-      <c r="C9" s="40">
-        <f>'tabela consumo'!H9:H11</f>
-        <v>4984.8</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <f>$C$5 - ($F9*$C$9)</f>
-        <v>360000</v>
-      </c>
-      <c r="H9" s="27">
-        <f>$C$5 - ($F9*$C$13)</f>
-        <v>360000</v>
-      </c>
-      <c r="I9" s="27">
-        <f>$C$5 - ($F9*$C$17)</f>
-        <v>360000</v>
-      </c>
-      <c r="J9" s="27">
-        <f>$C$5 - ($F9*$C$21)</f>
-        <v>360000</v>
-      </c>
-      <c r="K9" s="27">
-        <f>$C$5 - ($F9*$C$25)</f>
-        <v>360000</v>
-      </c>
-      <c r="L9" s="27">
-        <f>$C$5 - ($F9*$C$29)*2</f>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="27">
-        <v>10</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" ref="G10:G17" si="0">$C$5 - ($F10*$C$9)</f>
-        <v>310152</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" ref="H10:H17" si="1">$C$5 - ($F10*$C$13)</f>
-        <v>312432</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" ref="I10:I31" si="2">$C$5 - ($F10*$C$17)</f>
-        <v>343294</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" ref="J10:J40" si="3">$C$5 - ($F10*$C$21)</f>
-        <v>348246.97</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" ref="K10:K61" si="4">$C$5 - ($F10*$C$25)</f>
-        <v>353034.97</v>
-      </c>
-      <c r="L10" s="30">
-        <f t="shared" ref="L10:L39" si="5">$C$5 - ($F10*$C$29)</f>
-        <v>347589.97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="27">
-        <v>20</v>
-      </c>
-      <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>260304</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" si="1"/>
-        <v>264864</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="27">
         <f t="shared" si="2"/>
-        <v>326588</v>
-      </c>
-      <c r="J11" s="30">
+        <v>18.790277777777774</v>
+      </c>
+      <c r="J44" s="27">
         <f t="shared" si="3"/>
-        <v>336493.94</v>
-      </c>
-      <c r="K11" s="30">
+        <v>42.867215277777767</v>
+      </c>
+      <c r="K44" s="27">
         <f t="shared" si="4"/>
-        <v>346069.94</v>
-      </c>
-      <c r="L11" s="30">
-        <f t="shared" si="5"/>
-        <v>335179.94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="27">
-        <v>30</v>
-      </c>
-      <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>210456</v>
-      </c>
-      <c r="H12" s="30">
-        <f t="shared" si="1"/>
-        <v>217296</v>
-      </c>
-      <c r="I12" s="30">
+        <v>32.284430555555545</v>
+      </c>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E45" s="45"/>
+      <c r="F45" s="27">
+        <v>36</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="27">
         <f t="shared" si="2"/>
-        <v>309882</v>
-      </c>
-      <c r="J12" s="30">
+        <v>16.469999999999985</v>
+      </c>
+      <c r="J45" s="27">
         <f t="shared" si="3"/>
-        <v>324740.90999999997</v>
-      </c>
-      <c r="K12" s="30">
+        <v>41.234849999999987</v>
+      </c>
+      <c r="K45" s="27">
         <f t="shared" si="4"/>
-        <v>339104.91</v>
-      </c>
-      <c r="L12" s="30">
-        <f t="shared" si="5"/>
-        <v>322769.90999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="37">
-        <v>2</v>
-      </c>
-      <c r="C13" s="40">
-        <f>'tabela consumo'!$H$9:H13</f>
-        <v>4756.8</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="27">
+        <v>30.349699999999999</v>
+      </c>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="45"/>
+      <c r="F46" s="27">
+        <v>37</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="27">
+        <f t="shared" si="2"/>
+        <v>14.149722222222209</v>
+      </c>
+      <c r="J46" s="27">
+        <f t="shared" si="3"/>
+        <v>39.602484722222215</v>
+      </c>
+      <c r="K46" s="27">
+        <f t="shared" si="4"/>
+        <v>28.414969444444438</v>
+      </c>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E47" s="45"/>
+      <c r="F47" s="27">
+        <v>38</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="27">
+        <f t="shared" si="2"/>
+        <v>11.829444444444434</v>
+      </c>
+      <c r="J47" s="27">
+        <f t="shared" si="3"/>
+        <v>37.970119444444435</v>
+      </c>
+      <c r="K47" s="27">
+        <f t="shared" si="4"/>
+        <v>26.480238888888877</v>
+      </c>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E48" s="45"/>
+      <c r="F48" s="27">
+        <v>39</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="27">
+        <f t="shared" si="2"/>
+        <v>9.5091666666666583</v>
+      </c>
+      <c r="J48" s="27">
+        <f t="shared" si="3"/>
+        <v>36.337754166666656</v>
+      </c>
+      <c r="K48" s="27">
+        <f t="shared" si="4"/>
+        <v>24.545508333333331</v>
+      </c>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E49" s="45"/>
+      <c r="F49" s="27">
         <v>40</v>
       </c>
-      <c r="G13" s="30">
-        <f t="shared" si="0"/>
-        <v>160608</v>
-      </c>
-      <c r="H13" s="30">
-        <f t="shared" si="1"/>
-        <v>169728</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="27">
         <f t="shared" si="2"/>
-        <v>293176</v>
-      </c>
-      <c r="J13" s="30">
+        <v>7.1888888888888829</v>
+      </c>
+      <c r="J49" s="27">
         <f t="shared" si="3"/>
-        <v>312987.88</v>
-      </c>
-      <c r="K13" s="30">
+        <v>34.705388888888876</v>
+      </c>
+      <c r="K49" s="27">
         <f t="shared" si="4"/>
-        <v>332139.88</v>
-      </c>
-      <c r="L13" s="30">
-        <f t="shared" si="5"/>
-        <v>310359.88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="27">
+        <v>22.61077777777777</v>
+      </c>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E50" s="45"/>
+      <c r="F50" s="27">
+        <v>41</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="27">
+        <f t="shared" si="2"/>
+        <v>4.8686111111110932</v>
+      </c>
+      <c r="J50" s="27">
+        <f t="shared" si="3"/>
+        <v>33.073023611111097</v>
+      </c>
+      <c r="K50" s="27">
+        <f t="shared" si="4"/>
+        <v>20.676047222222209</v>
+      </c>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E51" s="45"/>
+      <c r="F51" s="27">
+        <v>42</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="27">
+        <f t="shared" si="2"/>
+        <v>2.5483333333333178</v>
+      </c>
+      <c r="J51" s="27">
+        <f t="shared" si="3"/>
+        <v>31.440658333333317</v>
+      </c>
+      <c r="K51" s="27">
+        <f t="shared" si="4"/>
+        <v>18.741316666666663</v>
+      </c>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E52" s="45"/>
+      <c r="F52" s="27">
+        <v>43</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="27">
+        <f t="shared" si="2"/>
+        <v>0.22805555555554236</v>
+      </c>
+      <c r="J52" s="27">
+        <f t="shared" si="3"/>
+        <v>29.808293055555538</v>
+      </c>
+      <c r="K52" s="27">
+        <f t="shared" si="4"/>
+        <v>16.806586111111102</v>
+      </c>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E53" s="45"/>
+      <c r="F53" s="27">
+        <v>44</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="27">
+        <f t="shared" si="2"/>
+        <v>-2.0922222222222331</v>
+      </c>
+      <c r="J53" s="27">
+        <f t="shared" si="3"/>
+        <v>28.175927777777758</v>
+      </c>
+      <c r="K53" s="27">
+        <f t="shared" si="4"/>
+        <v>14.871855555555541</v>
+      </c>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E54" s="45"/>
+      <c r="F54" s="27">
+        <v>45</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27">
+        <f t="shared" si="3"/>
+        <v>26.543562499999993</v>
+      </c>
+      <c r="K54" s="27">
+        <f t="shared" si="4"/>
+        <v>12.937124999999995</v>
+      </c>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E55" s="45"/>
+      <c r="F55" s="27">
+        <v>46</v>
+      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="27">
+        <f t="shared" si="3"/>
+        <v>24.911197222222214</v>
+      </c>
+      <c r="K55" s="27">
+        <f t="shared" si="4"/>
+        <v>11.002394444444434</v>
+      </c>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E56" s="45"/>
+      <c r="F56" s="27">
+        <v>47</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="27">
+        <f t="shared" si="3"/>
+        <v>23.278831944444434</v>
+      </c>
+      <c r="K56" s="27">
+        <f t="shared" si="4"/>
+        <v>9.0676638888888732</v>
+      </c>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E57" s="45"/>
+      <c r="F57" s="27">
+        <v>48</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="27">
+        <f t="shared" si="3"/>
+        <v>21.646466666666655</v>
+      </c>
+      <c r="K57" s="27">
+        <f t="shared" si="4"/>
+        <v>7.1329333333333267</v>
+      </c>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E58" s="45"/>
+      <c r="F58" s="27">
+        <v>49</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="27">
+        <f t="shared" si="3"/>
+        <v>20.014101388888875</v>
+      </c>
+      <c r="K58" s="27">
+        <f t="shared" si="4"/>
+        <v>5.198202777777766</v>
+      </c>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E59" s="45"/>
+      <c r="F59" s="27">
         <v>50</v>
       </c>
-      <c r="G14" s="30">
-        <f t="shared" si="0"/>
-        <v>110760</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="1"/>
-        <v>122160</v>
-      </c>
-      <c r="I14" s="30">
-        <f t="shared" si="2"/>
-        <v>276470</v>
-      </c>
-      <c r="J14" s="30">
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="27">
         <f t="shared" si="3"/>
-        <v>301234.84999999998</v>
-      </c>
-      <c r="K14" s="30">
+        <v>18.381736111111096</v>
+      </c>
+      <c r="K59" s="27">
         <f t="shared" si="4"/>
-        <v>325174.84999999998</v>
-      </c>
-      <c r="L14" s="30">
-        <f t="shared" si="5"/>
-        <v>297949.84999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="27">
+        <v>3.2634722222222052</v>
+      </c>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E60" s="45"/>
+      <c r="F60" s="27">
+        <v>51</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="27">
+        <f t="shared" si="3"/>
+        <v>16.749370833333316</v>
+      </c>
+      <c r="K60" s="27">
+        <f t="shared" si="4"/>
+        <v>1.3287416666666587</v>
+      </c>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E61" s="46"/>
+      <c r="F61" s="27">
+        <v>52</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="27">
+        <f t="shared" si="3"/>
+        <v>15.117005555555536</v>
+      </c>
+      <c r="K61" s="27">
+        <f t="shared" si="4"/>
+        <v>-0.60598888888890201</v>
+      </c>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F62" s="27">
+        <v>53</v>
+      </c>
+      <c r="G62" s="26"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27">
+        <f t="shared" si="3"/>
+        <v>13.484640277777757</v>
+      </c>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F63" s="27">
+        <v>54</v>
+      </c>
+      <c r="G63" s="26"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27">
+        <f t="shared" si="3"/>
+        <v>11.852274999999977</v>
+      </c>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F64" s="27">
+        <v>55</v>
+      </c>
+      <c r="G64" s="26"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27">
+        <f t="shared" si="3"/>
+        <v>10.219909722222212</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F65" s="27">
+        <v>56</v>
+      </c>
+      <c r="G65" s="26"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27">
+        <f t="shared" si="3"/>
+        <v>8.5875444444444327</v>
+      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F66" s="27">
+        <v>57</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27">
+        <f t="shared" si="3"/>
+        <v>6.9551791666666531</v>
+      </c>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+    </row>
+    <row r="67" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F67" s="27">
+        <v>58</v>
+      </c>
+      <c r="G67" s="26"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27">
+        <f t="shared" si="3"/>
+        <v>5.3228138888888736</v>
+      </c>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+    </row>
+    <row r="68" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F68" s="27">
+        <v>59</v>
+      </c>
+      <c r="G68" s="26"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27">
+        <f t="shared" si="3"/>
+        <v>3.6904486111110941</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+    </row>
+    <row r="69" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F69" s="27">
         <v>60</v>
       </c>
-      <c r="G15" s="30">
-        <f t="shared" si="0"/>
-        <v>60912</v>
-      </c>
-      <c r="H15" s="30">
-        <f t="shared" si="1"/>
-        <v>74592</v>
-      </c>
-      <c r="I15" s="30">
-        <f t="shared" si="2"/>
-        <v>259764</v>
-      </c>
-      <c r="J15" s="30">
+      <c r="G69" s="26"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27">
         <f t="shared" si="3"/>
-        <v>289481.82</v>
-      </c>
-      <c r="K15" s="30">
-        <f t="shared" si="4"/>
-        <v>318209.82</v>
-      </c>
-      <c r="L15" s="30">
-        <f t="shared" si="5"/>
-        <v>285539.82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="27">
-        <v>70</v>
-      </c>
-      <c r="G16" s="30">
-        <f t="shared" si="0"/>
-        <v>11064</v>
-      </c>
-      <c r="H16" s="30">
-        <f t="shared" si="1"/>
-        <v>27024</v>
-      </c>
-      <c r="I16" s="30">
-        <f t="shared" si="2"/>
-        <v>243058</v>
-      </c>
-      <c r="J16" s="30">
+        <v>2.0580833333333146</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F70" s="27">
+        <v>61</v>
+      </c>
+      <c r="G70" s="26"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27">
         <f t="shared" si="3"/>
-        <v>277728.78999999998</v>
-      </c>
-      <c r="K16" s="30">
-        <f t="shared" si="4"/>
-        <v>311244.78999999998</v>
-      </c>
-      <c r="L16" s="30">
-        <f t="shared" si="5"/>
-        <v>273129.78999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37">
-        <v>3</v>
-      </c>
-      <c r="C17" s="40">
-        <f>'tabela consumo'!$H$9:H17</f>
-        <v>1670.6000000000001</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="27">
-        <v>80</v>
-      </c>
-      <c r="G17" s="30">
-        <f t="shared" si="0"/>
-        <v>-38784</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="1"/>
-        <v>-20544</v>
-      </c>
-      <c r="I17" s="30">
-        <f t="shared" si="2"/>
-        <v>226352</v>
-      </c>
-      <c r="J17" s="30">
+        <v>0.4257180555555351</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+    </row>
+    <row r="71" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F71" s="27">
+        <v>62</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27">
         <f t="shared" si="3"/>
-        <v>265975.76</v>
-      </c>
-      <c r="K17" s="30">
-        <f t="shared" si="4"/>
-        <v>304279.76</v>
-      </c>
-      <c r="L17" s="30">
-        <f t="shared" si="5"/>
-        <v>260719.75999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="27">
-        <v>90</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="30">
-        <f t="shared" si="2"/>
-        <v>209646</v>
-      </c>
-      <c r="J18" s="30">
-        <f t="shared" si="3"/>
-        <v>254222.72999999998</v>
-      </c>
-      <c r="K18" s="30">
-        <f t="shared" si="4"/>
-        <v>297314.73</v>
-      </c>
-      <c r="L18" s="30">
-        <f t="shared" si="5"/>
-        <v>248309.72999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="27">
-        <v>100</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="30">
-        <f t="shared" si="2"/>
-        <v>192940</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="3"/>
-        <v>242469.69999999998</v>
-      </c>
-      <c r="K19" s="30">
-        <f t="shared" si="4"/>
-        <v>290349.7</v>
-      </c>
-      <c r="L19" s="30">
-        <f t="shared" si="5"/>
-        <v>235899.69999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="27">
-        <v>110</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="30">
-        <f t="shared" si="2"/>
-        <v>176233.99999999997</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="3"/>
-        <v>230716.66999999998</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="4"/>
-        <v>283384.67</v>
-      </c>
-      <c r="L20" s="30">
-        <f t="shared" si="5"/>
-        <v>223489.66999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="37">
-        <v>4</v>
-      </c>
-      <c r="C21" s="40">
-        <f>'tabela consumo'!$H$9:H21</f>
-        <v>1175.3030000000001</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="27">
-        <v>120</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="30">
-        <f t="shared" si="2"/>
-        <v>159527.99999999997</v>
-      </c>
-      <c r="J21" s="30">
-        <f t="shared" si="3"/>
-        <v>218963.63999999998</v>
-      </c>
-      <c r="K21" s="30">
-        <f t="shared" si="4"/>
-        <v>276419.64</v>
-      </c>
-      <c r="L21" s="30">
-        <f t="shared" si="5"/>
-        <v>211079.63999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="27">
-        <v>130</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="30">
-        <f t="shared" si="2"/>
-        <v>142821.99999999997</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" si="3"/>
-        <v>207210.61</v>
-      </c>
-      <c r="K22" s="30">
-        <f t="shared" si="4"/>
-        <v>269454.61</v>
-      </c>
-      <c r="L22" s="30">
-        <f t="shared" si="5"/>
-        <v>198669.61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="27">
-        <v>140</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30">
-        <f t="shared" si="2"/>
-        <v>126115.99999999997</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="3"/>
-        <v>195457.58</v>
-      </c>
-      <c r="K23" s="30">
-        <f t="shared" si="4"/>
-        <v>262489.57999999996</v>
-      </c>
-      <c r="L23" s="30">
-        <f t="shared" si="5"/>
-        <v>186259.58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="27">
-        <v>150</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="30">
-        <f t="shared" si="2"/>
-        <v>109409.99999999997</v>
-      </c>
-      <c r="J24" s="30">
-        <f t="shared" si="3"/>
-        <v>183704.55</v>
-      </c>
-      <c r="K24" s="30">
-        <f t="shared" si="4"/>
-        <v>255524.55</v>
-      </c>
-      <c r="L24" s="30">
-        <f t="shared" si="5"/>
-        <v>173849.55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="37">
-        <v>5</v>
-      </c>
-      <c r="C25" s="40">
-        <f>'tabela consumo'!$H$9:H25</f>
-        <v>696.50300000000004</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="27">
-        <v>160</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="30">
-        <f t="shared" si="2"/>
-        <v>92704</v>
-      </c>
-      <c r="J25" s="30">
-        <f t="shared" si="3"/>
-        <v>171951.52</v>
-      </c>
-      <c r="K25" s="30">
-        <f t="shared" si="4"/>
-        <v>248559.52</v>
-      </c>
-      <c r="L25" s="30">
-        <f t="shared" si="5"/>
-        <v>161439.51999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="38"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="27">
-        <v>170</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30">
-        <f t="shared" si="2"/>
-        <v>75998</v>
-      </c>
-      <c r="J26" s="30">
-        <f t="shared" si="3"/>
-        <v>160198.49</v>
-      </c>
-      <c r="K26" s="30">
-        <f t="shared" si="4"/>
-        <v>241594.49</v>
-      </c>
-      <c r="L26" s="30">
-        <f t="shared" si="5"/>
-        <v>149029.48999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="27">
-        <v>180</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="30">
-        <f t="shared" si="2"/>
-        <v>59292</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="3"/>
-        <v>148445.46</v>
-      </c>
-      <c r="K27" s="30">
-        <f t="shared" si="4"/>
-        <v>234629.46</v>
-      </c>
-      <c r="L27" s="30">
-        <f t="shared" si="5"/>
-        <v>136619.45999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="27">
-        <v>190</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="30">
-        <f t="shared" si="2"/>
-        <v>42586</v>
-      </c>
-      <c r="J28" s="30">
-        <f t="shared" si="3"/>
-        <v>136692.43</v>
-      </c>
-      <c r="K28" s="30">
-        <f t="shared" si="4"/>
-        <v>227664.43</v>
-      </c>
-      <c r="L28" s="30">
-        <f t="shared" si="5"/>
-        <v>124209.42999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="37">
-        <v>6</v>
-      </c>
-      <c r="C29" s="40">
-        <f>'tabela consumo'!$H$9:H29</f>
-        <v>1241.0030000000002</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="27">
-        <v>200</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="30">
-        <f t="shared" si="2"/>
-        <v>25880</v>
-      </c>
-      <c r="J29" s="30">
-        <f t="shared" si="3"/>
-        <v>124939.39999999997</v>
-      </c>
-      <c r="K29" s="30">
-        <f t="shared" si="4"/>
-        <v>220699.4</v>
-      </c>
-      <c r="L29" s="30">
-        <f t="shared" si="5"/>
-        <v>111799.39999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="38"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="27">
-        <v>210</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="30">
-        <f t="shared" si="2"/>
-        <v>9174</v>
-      </c>
-      <c r="J30" s="30">
-        <f t="shared" si="3"/>
-        <v>113186.36999999997</v>
-      </c>
-      <c r="K30" s="30">
-        <f t="shared" si="4"/>
-        <v>213734.37</v>
-      </c>
-      <c r="L30" s="30">
-        <f t="shared" si="5"/>
-        <v>99389.369999999966</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="27">
-        <v>220</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30">
-        <f t="shared" si="2"/>
-        <v>-7532.0000000000582</v>
-      </c>
-      <c r="J31" s="30">
-        <f t="shared" si="3"/>
-        <v>101433.33999999997</v>
-      </c>
-      <c r="K31" s="30">
-        <f t="shared" si="4"/>
-        <v>206769.34</v>
-      </c>
-      <c r="L31" s="30">
-        <f t="shared" si="5"/>
-        <v>86979.339999999967</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="47"/>
-      <c r="F32" s="27">
-        <v>230</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="30">
-        <f t="shared" si="3"/>
-        <v>89680.31</v>
-      </c>
-      <c r="K32" s="30">
-        <f t="shared" si="4"/>
-        <v>199804.31</v>
-      </c>
-      <c r="L32" s="30">
-        <f t="shared" si="5"/>
-        <v>74569.309999999939</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="47"/>
-      <c r="F33" s="27">
-        <v>240</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="30">
-        <f t="shared" si="3"/>
-        <v>77927.27999999997</v>
-      </c>
-      <c r="K33" s="30">
-        <f t="shared" si="4"/>
-        <v>192839.28</v>
-      </c>
-      <c r="L33" s="30">
-        <f t="shared" si="5"/>
-        <v>62159.27999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="47"/>
-      <c r="F34" s="27">
-        <v>250</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="30">
-        <f t="shared" si="3"/>
-        <v>66174.25</v>
-      </c>
-      <c r="K34" s="30">
-        <f t="shared" si="4"/>
-        <v>185874.25</v>
-      </c>
-      <c r="L34" s="30">
-        <f t="shared" si="5"/>
-        <v>49749.249999999942</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E35" s="47"/>
-      <c r="F35" s="27">
-        <v>260</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="30">
-        <f t="shared" si="3"/>
-        <v>54421.219999999972</v>
-      </c>
-      <c r="K35" s="30">
-        <f t="shared" si="4"/>
-        <v>178909.22</v>
-      </c>
-      <c r="L35" s="30">
-        <f t="shared" si="5"/>
-        <v>37339.219999999972</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="47"/>
-      <c r="F36" s="27">
-        <v>270</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="30">
-        <f t="shared" si="3"/>
-        <v>42668.189999999944</v>
-      </c>
-      <c r="K36" s="30">
-        <f t="shared" si="4"/>
-        <v>171944.19</v>
-      </c>
-      <c r="L36" s="30">
-        <f t="shared" si="5"/>
-        <v>24929.189999999944</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="47"/>
-      <c r="F37" s="27">
-        <v>280</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="30">
-        <f t="shared" si="3"/>
-        <v>30915.159999999974</v>
-      </c>
-      <c r="K37" s="30">
-        <f t="shared" si="4"/>
-        <v>164979.15999999997</v>
-      </c>
-      <c r="L37" s="30">
-        <f t="shared" si="5"/>
-        <v>12519.159999999974</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="47"/>
-      <c r="F38" s="27">
-        <v>290</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="30">
-        <f t="shared" si="3"/>
-        <v>19162.129999999946</v>
-      </c>
-      <c r="K38" s="30">
-        <f t="shared" si="4"/>
-        <v>158014.12999999998</v>
-      </c>
-      <c r="L38" s="30">
-        <f t="shared" si="5"/>
-        <v>109.12999999994645</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E39" s="47"/>
-      <c r="F39" s="27">
-        <v>300</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="30">
-        <f t="shared" si="3"/>
-        <v>7409.0999999999767</v>
-      </c>
-      <c r="K39" s="30">
-        <f t="shared" si="4"/>
-        <v>151049.09999999998</v>
-      </c>
-      <c r="L39" s="30">
-        <f t="shared" si="5"/>
-        <v>-12300.900000000023</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="47"/>
-      <c r="F40" s="27">
-        <v>310</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="30">
-        <f t="shared" si="3"/>
-        <v>-4343.9300000000512</v>
-      </c>
-      <c r="K40" s="30">
-        <f t="shared" si="4"/>
-        <v>144084.06999999998</v>
-      </c>
-      <c r="L40" s="27"/>
-    </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E41" s="47"/>
-      <c r="F41" s="27">
-        <v>320</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="30">
-        <f t="shared" si="4"/>
-        <v>137119.03999999998</v>
-      </c>
-      <c r="L41" s="27"/>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E42" s="47"/>
-      <c r="F42" s="27">
-        <v>330</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="30">
-        <f t="shared" si="4"/>
-        <v>130154.00999999998</v>
-      </c>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E43" s="47"/>
-      <c r="F43" s="27">
-        <v>340</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="30">
-        <f t="shared" si="4"/>
-        <v>123188.97999999998</v>
-      </c>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E44" s="47"/>
-      <c r="F44" s="27">
-        <v>350</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="30">
-        <f t="shared" si="4"/>
-        <v>116223.94999999998</v>
-      </c>
-      <c r="L44" s="27"/>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E45" s="47"/>
-      <c r="F45" s="27">
-        <v>360</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="30">
-        <f t="shared" si="4"/>
-        <v>109258.91999999998</v>
-      </c>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E46" s="47"/>
-      <c r="F46" s="27">
-        <v>370</v>
-      </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="30">
-        <f t="shared" si="4"/>
-        <v>102293.88999999998</v>
-      </c>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E47" s="47"/>
-      <c r="F47" s="27">
-        <v>380</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="30">
-        <f t="shared" si="4"/>
-        <v>95328.859999999986</v>
-      </c>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E48" s="47"/>
-      <c r="F48" s="27">
-        <v>390</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="30">
-        <f t="shared" si="4"/>
-        <v>88363.829999999958</v>
-      </c>
-      <c r="L48" s="27"/>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E49" s="47"/>
-      <c r="F49" s="27">
-        <v>400</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="30">
-        <f t="shared" si="4"/>
-        <v>81398.799999999988</v>
-      </c>
-      <c r="L49" s="27"/>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E50" s="47"/>
-      <c r="F50" s="27">
-        <v>410</v>
-      </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="30">
-        <f t="shared" si="4"/>
-        <v>74433.76999999996</v>
-      </c>
-      <c r="L50" s="27"/>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E51" s="47"/>
-      <c r="F51" s="27">
-        <v>420</v>
-      </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="30">
-        <f t="shared" si="4"/>
-        <v>67468.739999999991</v>
-      </c>
-      <c r="L51" s="27"/>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E52" s="47"/>
-      <c r="F52" s="27">
-        <v>430</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="30">
-        <f t="shared" si="4"/>
-        <v>60503.709999999963</v>
-      </c>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E53" s="47"/>
-      <c r="F53" s="27">
-        <v>440</v>
-      </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="30">
-        <f t="shared" si="4"/>
-        <v>53538.679999999993</v>
-      </c>
-      <c r="L53" s="27"/>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E54" s="47"/>
-      <c r="F54" s="27">
-        <v>450</v>
-      </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="30">
-        <f t="shared" si="4"/>
-        <v>46573.649999999965</v>
-      </c>
-      <c r="L54" s="27"/>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E55" s="47"/>
-      <c r="F55" s="27">
-        <v>460</v>
-      </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="30">
-        <f t="shared" si="4"/>
-        <v>39608.619999999995</v>
-      </c>
-      <c r="L55" s="27"/>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E56" s="47"/>
-      <c r="F56" s="27">
-        <v>470</v>
-      </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="30">
-        <f t="shared" si="4"/>
-        <v>32643.589999999967</v>
-      </c>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E57" s="47"/>
-      <c r="F57" s="27">
-        <v>480</v>
-      </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="30">
-        <f t="shared" si="4"/>
-        <v>25678.559999999998</v>
-      </c>
-      <c r="L57" s="27"/>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E58" s="47"/>
-      <c r="F58" s="27">
-        <v>490</v>
-      </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="30">
-        <f t="shared" si="4"/>
-        <v>18713.52999999997</v>
-      </c>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E59" s="47"/>
-      <c r="F59" s="27">
-        <v>500</v>
-      </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="30">
-        <f t="shared" si="4"/>
-        <v>11748.5</v>
-      </c>
-      <c r="L59" s="27"/>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E60" s="47"/>
-      <c r="F60" s="27">
-        <v>510</v>
-      </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="30">
-        <f t="shared" si="4"/>
-        <v>4783.4699999999721</v>
-      </c>
-      <c r="L60" s="27"/>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E61" s="48"/>
-      <c r="F61" s="27">
-        <v>520</v>
-      </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="30">
-        <f t="shared" si="4"/>
-        <v>-2181.5599999999977</v>
-      </c>
-      <c r="L61" s="27"/>
-    </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H63" s="23"/>
-    </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H64" s="23"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="23"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="23"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+        <v>-1.2066472222222444</v>
+      </c>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+    </row>
+    <row r="72" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F72" s="27">
+        <v>63</v>
+      </c>
+      <c r="G72" s="26"/>
       <c r="H72" s="23"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="23"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="23"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="23"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="23"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="23"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="23"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H80" s="23"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="23"/>
+      <c r="H81" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
@@ -4631,6 +6650,7 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
